--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_pressure.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,210 +441,195 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_in_sample</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_in_sample</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
@@ -660,127 +645,118 @@
         <v>27.77777777777778</v>
       </c>
       <c r="C2" t="n">
-        <v>27.77777777777778</v>
+        <v>4.527777777777778</v>
       </c>
       <c r="D2" t="n">
-        <v>4.527777777777778</v>
+        <v>23.25</v>
       </c>
       <c r="E2" t="n">
-        <v>23.25</v>
+        <v>59.84265725478225</v>
       </c>
       <c r="F2" t="n">
-        <v>824.0413888888889</v>
+        <v>56.41945828245829</v>
       </c>
       <c r="G2" t="n">
-        <v>776.6322222222221</v>
+        <v>23.86111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>23.86111111111111</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I2" t="n">
-        <v>20.22222222222222</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="J2" t="n">
-        <v>3.055555555555555</v>
+        <v>1.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.75</v>
+        <v>10.75320563695564</v>
       </c>
       <c r="L2" t="n">
-        <v>147.2222222222222</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>3.583333333333333</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="N2" t="n">
-        <v>1.888888888888889</v>
+        <v>10.56879746642247</v>
       </c>
       <c r="O2" t="n">
-        <v>146.065</v>
+        <v>120.8888888888889</v>
       </c>
       <c r="P2" t="n">
-        <v>120.8888888888889</v>
+        <v>22.02777777777778</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8888888888889</v>
+        <v>98.86111111111111</v>
       </c>
       <c r="R2" t="n">
-        <v>22.02777777777778</v>
+        <v>73.64423260073261</v>
       </c>
       <c r="S2" t="n">
-        <v>98.86111111111111</v>
+        <v>73.84564891127391</v>
       </c>
       <c r="T2" t="n">
-        <v>1014.633333333333</v>
+        <v>103.2777777777778</v>
       </c>
       <c r="U2" t="n">
-        <v>1016.204444444444</v>
+        <v>86.5</v>
       </c>
       <c r="V2" t="n">
-        <v>103.2777777777778</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="W2" t="n">
-        <v>86.5</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="X2" t="n">
-        <v>8.472222222222221</v>
+        <v>19.65752859177859</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.416666666666667</v>
+        <v>17.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>271.5736111111111</v>
+        <v>9.194444444444445</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.75</v>
+        <v>31.70571560846561</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.194444444444445</v>
+        <v>152.1944444444445</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.5188888888889</v>
+        <v>36.44444444444444</v>
       </c>
       <c r="AD2" t="n">
-        <v>152.1944444444445</v>
+        <v>115.75</v>
       </c>
       <c r="AE2" t="n">
-        <v>152.1944444444445</v>
+        <v>71.70613899063899</v>
       </c>
       <c r="AF2" t="n">
-        <v>36.44444444444444</v>
+        <v>73.74390908628408</v>
       </c>
       <c r="AG2" t="n">
-        <v>115.75</v>
+        <v>101.9722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>988.2280555555556</v>
+        <v>82.27777777777777</v>
       </c>
       <c r="AI2" t="n">
-        <v>1017.106111111111</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="AJ2" t="n">
-        <v>101.9722222222222</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="AK2" t="n">
-        <v>82.27777777777777</v>
+        <v>23.65023606023606</v>
       </c>
       <c r="AL2" t="n">
-        <v>12.27777777777778</v>
+        <v>20.19444444444444</v>
       </c>
       <c r="AM2" t="n">
-        <v>6.444444444444445</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="AN2" t="n">
-        <v>327.5466666666667</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>20.19444444444444</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>9.722222222222221</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>460.9236111111111</v>
+        <v>33.24657554945055</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +769,118 @@
         <v>23.44736842105263</v>
       </c>
       <c r="C3" t="n">
-        <v>23.44736842105263</v>
+        <v>5.052631578947368</v>
       </c>
       <c r="D3" t="n">
-        <v>5.052631578947368</v>
+        <v>18.39473684210526</v>
       </c>
       <c r="E3" t="n">
-        <v>18.39473684210526</v>
+        <v>55.11814709851552</v>
       </c>
       <c r="F3" t="n">
-        <v>775.291052631579</v>
+        <v>52.36628571428572</v>
       </c>
       <c r="G3" t="n">
-        <v>736.3989473684211</v>
+        <v>19.44736842105263</v>
       </c>
       <c r="H3" t="n">
-        <v>19.44736842105263</v>
+        <v>15.73684210526316</v>
       </c>
       <c r="I3" t="n">
-        <v>15.73684210526316</v>
+        <v>2.078947368421053</v>
       </c>
       <c r="J3" t="n">
-        <v>2.078947368421053</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="K3" t="n">
-        <v>1.105263157894737</v>
+        <v>7.029111239637555</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>3.473684210526316</v>
       </c>
       <c r="M3" t="n">
-        <v>3.473684210526316</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="N3" t="n">
-        <v>1.526315789473684</v>
+        <v>8.714581164449585</v>
       </c>
       <c r="O3" t="n">
-        <v>124.1228947368421</v>
+        <v>112.6052631578947</v>
       </c>
       <c r="P3" t="n">
-        <v>112.6052631578947</v>
+        <v>24.28947368421053</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.6052631578947</v>
+        <v>88.31578947368421</v>
       </c>
       <c r="R3" t="n">
-        <v>24.28947368421053</v>
+        <v>71.80923886639677</v>
       </c>
       <c r="S3" t="n">
-        <v>88.31578947368421</v>
+        <v>71.31303730480046</v>
       </c>
       <c r="T3" t="n">
-        <v>1012.489736842105</v>
+        <v>92.94736842105263</v>
       </c>
       <c r="U3" t="n">
-        <v>1006.411842105263</v>
+        <v>74.86842105263158</v>
       </c>
       <c r="V3" t="n">
-        <v>92.94736842105263</v>
+        <v>7.526315789473684</v>
       </c>
       <c r="W3" t="n">
-        <v>74.86842105263158</v>
+        <v>3.368421052631579</v>
       </c>
       <c r="X3" t="n">
-        <v>7.526315789473684</v>
+        <v>16.88554732986312</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.368421052631579</v>
+        <v>18.73684210526316</v>
       </c>
       <c r="Z3" t="n">
-        <v>239.7805263157895</v>
+        <v>8.894736842105264</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.73684210526316</v>
+        <v>29.21124590321959</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.894736842105264</v>
+        <v>139.4736842105263</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.2763157894737</v>
+        <v>37.26315789473684</v>
       </c>
       <c r="AD3" t="n">
-        <v>139.4736842105263</v>
+        <v>102.2105263157895</v>
       </c>
       <c r="AE3" t="n">
-        <v>139.4736842105263</v>
+        <v>69.09706419895895</v>
       </c>
       <c r="AF3" t="n">
-        <v>37.26315789473684</v>
+        <v>71.15247715442452</v>
       </c>
       <c r="AG3" t="n">
-        <v>102.2105263157895</v>
+        <v>93</v>
       </c>
       <c r="AH3" t="n">
-        <v>975.7868421052632</v>
+        <v>72.78947368421052</v>
       </c>
       <c r="AI3" t="n">
-        <v>1003.373947368421</v>
+        <v>8.605263157894736</v>
       </c>
       <c r="AJ3" t="n">
-        <v>93</v>
+        <v>4.289473684210527</v>
       </c>
       <c r="AK3" t="n">
-        <v>72.78947368421052</v>
+        <v>18.87132793522267</v>
       </c>
       <c r="AL3" t="n">
-        <v>8.605263157894736</v>
+        <v>19.23684210526316</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.289473684210527</v>
+        <v>9.421052631578947</v>
       </c>
       <c r="AN3" t="n">
-        <v>263.3773684210526</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>19.23684210526316</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>9.421052631578947</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>459.956052631579</v>
+        <v>32.73491796799691</v>
       </c>
     </row>
     <row r="4">
@@ -926,127 +893,118 @@
         <v>23.18421052631579</v>
       </c>
       <c r="C4" t="n">
-        <v>23.18421052631579</v>
+        <v>4.710526315789473</v>
       </c>
       <c r="D4" t="n">
-        <v>4.710526315789473</v>
+        <v>18.47368421052632</v>
       </c>
       <c r="E4" t="n">
-        <v>18.47368421052632</v>
+        <v>54.91978266470371</v>
       </c>
       <c r="F4" t="n">
-        <v>788.3152631578947</v>
+        <v>52.30797829363619</v>
       </c>
       <c r="G4" t="n">
-        <v>751.1252631578947</v>
+        <v>19.78947368421053</v>
       </c>
       <c r="H4" t="n">
-        <v>19.78947368421053</v>
+        <v>16.21052631578947</v>
       </c>
       <c r="I4" t="n">
-        <v>16.21052631578947</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="J4" t="n">
-        <v>2.763157894736842</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="K4" t="n">
-        <v>1.684210526315789</v>
+        <v>10.29996319470004</v>
       </c>
       <c r="L4" t="n">
-        <v>147.3684210526316</v>
+        <v>3.657894736842105</v>
       </c>
       <c r="M4" t="n">
-        <v>3.657894736842105</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="N4" t="n">
-        <v>1.947368421052632</v>
+        <v>11.14208305729358</v>
       </c>
       <c r="O4" t="n">
-        <v>156.7981578947368</v>
+        <v>115.3684210526316</v>
       </c>
       <c r="P4" t="n">
-        <v>115.3684210526316</v>
+        <v>22.94736842105263</v>
       </c>
       <c r="Q4" t="n">
-        <v>115.3684210526316</v>
+        <v>92.42105263157895</v>
       </c>
       <c r="R4" t="n">
-        <v>22.94736842105263</v>
+        <v>74.40371293618662</v>
       </c>
       <c r="S4" t="n">
-        <v>92.42105263157895</v>
+        <v>72.72825249312091</v>
       </c>
       <c r="T4" t="n">
-        <v>1069.193947368421</v>
+        <v>97.36842105263158</v>
       </c>
       <c r="U4" t="n">
-        <v>1046.340789473684</v>
+        <v>80.13157894736842</v>
       </c>
       <c r="V4" t="n">
-        <v>97.36842105263158</v>
+        <v>7.842105263157895</v>
       </c>
       <c r="W4" t="n">
-        <v>80.13157894736842</v>
+        <v>4.131578947368421</v>
       </c>
       <c r="X4" t="n">
-        <v>7.842105263157895</v>
+        <v>20.67272785109627</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.131578947368421</v>
+        <v>17.84210526315789</v>
       </c>
       <c r="Z4" t="n">
-        <v>296.9297368421053</v>
+        <v>8.894736842105264</v>
       </c>
       <c r="AA4" t="n">
-        <v>17.84210526315789</v>
+        <v>29.64080158438053</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.894736842105264</v>
+        <v>138.3947368421053</v>
       </c>
       <c r="AC4" t="n">
-        <v>426.4971052631579</v>
+        <v>37.57894736842105</v>
       </c>
       <c r="AD4" t="n">
-        <v>138.3947368421053</v>
+        <v>100.8157894736842</v>
       </c>
       <c r="AE4" t="n">
-        <v>138.3947368421053</v>
+        <v>70.8671001629949</v>
       </c>
       <c r="AF4" t="n">
-        <v>37.57894736842105</v>
+        <v>71.8237565942829</v>
       </c>
       <c r="AG4" t="n">
-        <v>100.8157894736842</v>
+        <v>93.94736842105263</v>
       </c>
       <c r="AH4" t="n">
-        <v>1018.615</v>
+        <v>71.94736842105263</v>
       </c>
       <c r="AI4" t="n">
-        <v>1031.902631578947</v>
+        <v>10.97368421052632</v>
       </c>
       <c r="AJ4" t="n">
-        <v>93.94736842105263</v>
+        <v>5.421052631578948</v>
       </c>
       <c r="AK4" t="n">
-        <v>71.94736842105263</v>
+        <v>21.32280191738086</v>
       </c>
       <c r="AL4" t="n">
-        <v>10.97368421052632</v>
+        <v>19.97368421052632</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.421052631578948</v>
+        <v>9.026315789473685</v>
       </c>
       <c r="AN4" t="n">
-        <v>307.4118421052631</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19.97368421052632</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>9.026315789473685</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>440.915</v>
+        <v>30.7358708484498</v>
       </c>
     </row>
     <row r="5">
@@ -1059,127 +1017,118 @@
         <v>19.52631578947368</v>
       </c>
       <c r="C5" t="n">
-        <v>19.52631578947368</v>
+        <v>4.105263157894737</v>
       </c>
       <c r="D5" t="n">
-        <v>4.105263157894737</v>
+        <v>15.42105263157895</v>
       </c>
       <c r="E5" t="n">
-        <v>15.42105263157895</v>
+        <v>48.45156718719877</v>
       </c>
       <c r="F5" t="n">
-        <v>698.8594736842106</v>
+        <v>44.93953981106613</v>
       </c>
       <c r="G5" t="n">
-        <v>647.8347368421053</v>
+        <v>16.21052631578947</v>
       </c>
       <c r="H5" t="n">
-        <v>16.21052631578947</v>
+        <v>12.97368421052632</v>
       </c>
       <c r="I5" t="n">
-        <v>12.97368421052632</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="J5" t="n">
-        <v>2.736842105263158</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="K5" t="n">
-        <v>1.447368421052632</v>
+        <v>8.983998457682668</v>
       </c>
       <c r="L5" t="n">
-        <v>128.9473684210526</v>
+        <v>3.368421052631579</v>
       </c>
       <c r="M5" t="n">
-        <v>3.368421052631579</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="N5" t="n">
-        <v>1.605263157894737</v>
+        <v>9.342432427221901</v>
       </c>
       <c r="O5" t="n">
-        <v>134.6492105263158</v>
+        <v>88.65789473684211</v>
       </c>
       <c r="P5" t="n">
-        <v>88.65789473684211</v>
+        <v>21.92105263157895</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.65789473684211</v>
+        <v>66.73684210526316</v>
       </c>
       <c r="R5" t="n">
-        <v>21.92105263157895</v>
+        <v>67.59879255831888</v>
       </c>
       <c r="S5" t="n">
-        <v>66.73684210526316</v>
+        <v>65.6423767110083</v>
       </c>
       <c r="T5" t="n">
-        <v>975.2449999999999</v>
+        <v>73.5</v>
       </c>
       <c r="U5" t="n">
-        <v>947.5063157894737</v>
+        <v>56.52631578947368</v>
       </c>
       <c r="V5" t="n">
-        <v>73.5</v>
+        <v>6.473684210526316</v>
       </c>
       <c r="W5" t="n">
-        <v>56.52631578947368</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="X5" t="n">
-        <v>6.473684210526316</v>
+        <v>17.23639926739927</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.263157894736842</v>
+        <v>17.86842105263158</v>
       </c>
       <c r="Z5" t="n">
-        <v>248.1136842105263</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.86842105263158</v>
+        <v>28.33490861769809</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>126.3421052631579</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.6921052631579</v>
+        <v>36.63157894736842</v>
       </c>
       <c r="AD5" t="n">
-        <v>126.3421052631579</v>
+        <v>89.71052631578948</v>
       </c>
       <c r="AE5" t="n">
-        <v>126.3421052631579</v>
+        <v>64.01990717177559</v>
       </c>
       <c r="AF5" t="n">
-        <v>36.63157894736842</v>
+        <v>63.63269269327164</v>
       </c>
       <c r="AG5" t="n">
-        <v>89.71052631578948</v>
+        <v>83.10526315789474</v>
       </c>
       <c r="AH5" t="n">
-        <v>922.2531578947369</v>
+        <v>61.71052631578947</v>
       </c>
       <c r="AI5" t="n">
-        <v>917.5568421052633</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="AJ5" t="n">
-        <v>83.10526315789474</v>
+        <v>5.105263157894737</v>
       </c>
       <c r="AK5" t="n">
-        <v>61.71052631578947</v>
+        <v>21.01290331598226</v>
       </c>
       <c r="AL5" t="n">
-        <v>10.52631578947368</v>
+        <v>21.68421052631579</v>
       </c>
       <c r="AM5" t="n">
-        <v>5.105263157894737</v>
+        <v>9.289473684210526</v>
       </c>
       <c r="AN5" t="n">
-        <v>301.3592105263158</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21.68421052631579</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>9.289473684210526</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>420.6602631578947</v>
+        <v>29.30679631771737</v>
       </c>
     </row>
     <row r="6">
@@ -1192,127 +1141,118 @@
         <v>24.53846153846154</v>
       </c>
       <c r="C6" t="n">
-        <v>24.53846153846154</v>
+        <v>4.153846153846154</v>
       </c>
       <c r="D6" t="n">
-        <v>4.153846153846154</v>
+        <v>20.38461538461538</v>
       </c>
       <c r="E6" t="n">
-        <v>20.38461538461538</v>
+        <v>57.66794327040481</v>
       </c>
       <c r="F6" t="n">
-        <v>802.4102564102565</v>
+        <v>56.43114633230018</v>
       </c>
       <c r="G6" t="n">
-        <v>784.8397435897435</v>
+        <v>21.61538461538462</v>
       </c>
       <c r="H6" t="n">
-        <v>21.61538461538462</v>
+        <v>18.30769230769231</v>
       </c>
       <c r="I6" t="n">
-        <v>18.30769230769231</v>
+        <v>2.487179487179487</v>
       </c>
       <c r="J6" t="n">
-        <v>2.487179487179487</v>
+        <v>1.564102564102564</v>
       </c>
       <c r="K6" t="n">
-        <v>1.564102564102564</v>
+        <v>9.614921574152344</v>
       </c>
       <c r="L6" t="n">
-        <v>132.478717948718</v>
+        <v>3.282051282051282</v>
       </c>
       <c r="M6" t="n">
-        <v>3.282051282051282</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="N6" t="n">
-        <v>1.846153846153846</v>
+        <v>11.45251526251526</v>
       </c>
       <c r="O6" t="n">
-        <v>157.2648717948718</v>
+        <v>123.9487179487179</v>
       </c>
       <c r="P6" t="n">
-        <v>123.9487179487179</v>
+        <v>23.61538461538462</v>
       </c>
       <c r="Q6" t="n">
-        <v>123.9487179487179</v>
+        <v>100.3333333333333</v>
       </c>
       <c r="R6" t="n">
-        <v>23.61538461538462</v>
+        <v>73.42135113177422</v>
       </c>
       <c r="S6" t="n">
-        <v>100.3333333333333</v>
+        <v>72.1907000563539</v>
       </c>
       <c r="T6" t="n">
-        <v>1023.193076923077</v>
+        <v>105.2051282051282</v>
       </c>
       <c r="U6" t="n">
-        <v>1006.310256410256</v>
+        <v>87.41025641025641</v>
       </c>
       <c r="V6" t="n">
-        <v>105.2051282051282</v>
+        <v>7.82051282051282</v>
       </c>
       <c r="W6" t="n">
-        <v>87.41025641025641</v>
+        <v>4.051282051282051</v>
       </c>
       <c r="X6" t="n">
-        <v>7.82051282051282</v>
+        <v>18.6591082464544</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.051282051282051</v>
+        <v>19.76923076923077</v>
       </c>
       <c r="Z6" t="n">
-        <v>259.615641025641</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.76923076923077</v>
+        <v>30.49800380388842</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.666666666666666</v>
+        <v>147.3846153846154</v>
       </c>
       <c r="AC6" t="n">
-        <v>424.1920512820513</v>
+        <v>35.71794871794872</v>
       </c>
       <c r="AD6" t="n">
-        <v>147.3846153846154</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="AE6" t="n">
-        <v>147.3846153846154</v>
+        <v>71.4135125387433</v>
       </c>
       <c r="AF6" t="n">
-        <v>35.71794871794872</v>
+        <v>74.77236611251996</v>
       </c>
       <c r="AG6" t="n">
-        <v>111.6666666666667</v>
+        <v>98.74358974358974</v>
       </c>
       <c r="AH6" t="n">
-        <v>994.5764102564103</v>
+        <v>80.05128205128206</v>
       </c>
       <c r="AI6" t="n">
-        <v>1041.155384615384</v>
+        <v>10.46153846153846</v>
       </c>
       <c r="AJ6" t="n">
-        <v>98.74358974358974</v>
+        <v>6.307692307692307</v>
       </c>
       <c r="AK6" t="n">
-        <v>80.05128205128206</v>
+        <v>26.3879085188316</v>
       </c>
       <c r="AL6" t="n">
-        <v>10.46153846153846</v>
+        <v>20.05128205128205</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.307692307692307</v>
+        <v>10.38461538461539</v>
       </c>
       <c r="AN6" t="n">
-        <v>365.3912820512821</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>20.05128205128205</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>10.38461538461539</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>486.1910256410256</v>
+        <v>35.22519343477036</v>
       </c>
     </row>
     <row r="7">
@@ -1325,127 +1265,118 @@
         <v>24.26315789473684</v>
       </c>
       <c r="C7" t="n">
-        <v>24.26315789473684</v>
+        <v>4.657894736842105</v>
       </c>
       <c r="D7" t="n">
-        <v>4.657894736842105</v>
+        <v>19.60526315789474</v>
       </c>
       <c r="E7" t="n">
-        <v>19.60526315789474</v>
+        <v>58.5689567669173</v>
       </c>
       <c r="F7" t="n">
-        <v>822.8147368421053</v>
+        <v>53.62602540003856</v>
       </c>
       <c r="G7" t="n">
-        <v>753.1207894736842</v>
+        <v>20.57894736842105</v>
       </c>
       <c r="H7" t="n">
-        <v>20.57894736842105</v>
+        <v>16.81578947368421</v>
       </c>
       <c r="I7" t="n">
-        <v>16.81578947368421</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="K7" t="n">
-        <v>1.236842105263158</v>
+        <v>7.459995662232504</v>
       </c>
       <c r="L7" t="n">
-        <v>103.9473684210526</v>
+        <v>3.921052631578947</v>
       </c>
       <c r="M7" t="n">
-        <v>3.921052631578947</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="N7" t="n">
-        <v>1.947368421052632</v>
+        <v>10.46432065741276</v>
       </c>
       <c r="O7" t="n">
-        <v>145.395</v>
+        <v>104.5</v>
       </c>
       <c r="P7" t="n">
-        <v>104.5</v>
+        <v>22.86842105263158</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.5</v>
+        <v>81.63157894736842</v>
       </c>
       <c r="R7" t="n">
-        <v>22.86842105263158</v>
+        <v>73.60863220551379</v>
       </c>
       <c r="S7" t="n">
-        <v>81.63157894736842</v>
+        <v>74.55462550607288</v>
       </c>
       <c r="T7" t="n">
-        <v>1033.044210526316</v>
+        <v>87.31578947368421</v>
       </c>
       <c r="U7" t="n">
-        <v>1046.291315789474</v>
+        <v>69.76315789473684</v>
       </c>
       <c r="V7" t="n">
-        <v>87.31578947368421</v>
+        <v>7.289473684210527</v>
       </c>
       <c r="W7" t="n">
-        <v>69.76315789473684</v>
+        <v>3.552631578947369</v>
       </c>
       <c r="X7" t="n">
-        <v>7.289473684210527</v>
+        <v>18.24156940427993</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.552631578947369</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>252.9384210526316</v>
+        <v>9.736842105263158</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>32.62867452284557</v>
       </c>
       <c r="AB7" t="n">
+        <v>132.8947368421053</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>35.63157894736842</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>97.26315789473684</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>70.08603373819163</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>70.62633680354733</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>87.47368421052632</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>66.71052631578948</v>
+      </c>
+      <c r="AI7" t="n">
         <v>9.736842105263158</v>
       </c>
-      <c r="AC7" t="n">
-        <v>455.7457894736842</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>132.8947368421053</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>132.8947368421053</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>35.63157894736842</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>97.26315789473684</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>985.1218421052631</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>992.2544736842104</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>87.47368421052632</v>
+        <v>4.815789473684211</v>
       </c>
       <c r="AK7" t="n">
-        <v>66.71052631578948</v>
+        <v>21.16368758434548</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.736842105263158</v>
+        <v>19.26315789473684</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.815789473684211</v>
+        <v>8.868421052631579</v>
       </c>
       <c r="AN7" t="n">
-        <v>298.4655263157895</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19.26315789473684</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>8.868421052631579</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>416.6326315789474</v>
+        <v>29.6993828320802</v>
       </c>
     </row>
     <row r="8">
@@ -1458,127 +1389,118 @@
         <v>17.30555555555556</v>
       </c>
       <c r="C8" t="n">
-        <v>17.30555555555556</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D8" t="n">
-        <v>3.888888888888889</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>13.41666666666667</v>
+        <v>46.29504965404966</v>
       </c>
       <c r="F8" t="n">
-        <v>671.8108333333333</v>
+        <v>42.6116333943834</v>
       </c>
       <c r="G8" t="n">
-        <v>618.4047222222222</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="H8" t="n">
-        <v>14.44444444444444</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="I8" t="n">
-        <v>11.55555555555556</v>
+        <v>1.972222222222222</v>
       </c>
       <c r="J8" t="n">
-        <v>1.972222222222222</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8611111111111112</v>
+        <v>4.256878917378917</v>
       </c>
       <c r="L8" t="n">
-        <v>62.03694444444444</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="M8" t="n">
-        <v>3.472222222222222</v>
+        <v>1.694444444444444</v>
       </c>
       <c r="N8" t="n">
-        <v>1.694444444444444</v>
+        <v>9.07376048026048</v>
       </c>
       <c r="O8" t="n">
-        <v>131.7133333333333</v>
+        <v>93.05555555555556</v>
       </c>
       <c r="P8" t="n">
-        <v>93.05555555555556</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>93.05555555555556</v>
+        <v>70.22222222222223</v>
       </c>
       <c r="R8" t="n">
-        <v>22.83333333333333</v>
+        <v>67.8570725986976</v>
       </c>
       <c r="S8" t="n">
-        <v>70.22222222222223</v>
+        <v>67.13062606837607</v>
       </c>
       <c r="T8" t="n">
-        <v>984.5916666666667</v>
+        <v>78.02777777777777</v>
       </c>
       <c r="U8" t="n">
-        <v>973.9383333333333</v>
+        <v>60.08333333333334</v>
       </c>
       <c r="V8" t="n">
-        <v>78.02777777777777</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="W8" t="n">
-        <v>60.08333333333334</v>
+        <v>3.361111111111111</v>
       </c>
       <c r="X8" t="n">
-        <v>6.333333333333333</v>
+        <v>16.5289653032153</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.361111111111111</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="Z8" t="n">
-        <v>240.2777777777778</v>
+        <v>9.638888888888889</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.44444444444444</v>
+        <v>30.13659238909239</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.638888888888889</v>
+        <v>127.0555555555556</v>
       </c>
       <c r="AC8" t="n">
-        <v>437.1122222222223</v>
+        <v>37.11111111111111</v>
       </c>
       <c r="AD8" t="n">
-        <v>127.0555555555556</v>
+        <v>89.94444444444444</v>
       </c>
       <c r="AE8" t="n">
-        <v>127.0555555555556</v>
+        <v>66.77817699430199</v>
       </c>
       <c r="AF8" t="n">
-        <v>37.11111111111111</v>
+        <v>68.28274135124134</v>
       </c>
       <c r="AG8" t="n">
-        <v>89.94444444444444</v>
+        <v>85.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>967.0955555555556</v>
+        <v>63.36111111111111</v>
       </c>
       <c r="AI8" t="n">
-        <v>988.9491666666667</v>
+        <v>8.861111111111111</v>
       </c>
       <c r="AJ8" t="n">
-        <v>85.75</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="AK8" t="n">
-        <v>63.36111111111111</v>
+        <v>18.64444683557183</v>
       </c>
       <c r="AL8" t="n">
-        <v>8.861111111111111</v>
+        <v>21.69444444444444</v>
       </c>
       <c r="AM8" t="n">
-        <v>4.222222222222222</v>
+        <v>9.805555555555555</v>
       </c>
       <c r="AN8" t="n">
-        <v>268.9816666666667</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>21.69444444444444</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>9.805555555555555</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>427.6269444444445</v>
+        <v>29.61634198209198</v>
       </c>
     </row>
     <row r="9">
@@ -1591,127 +1513,118 @@
         <v>21.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>21.47368421052632</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="n">
-        <v>4.5</v>
+        <v>16.97368421052632</v>
       </c>
       <c r="E9" t="n">
-        <v>16.97368421052632</v>
+        <v>50.91568489405331</v>
       </c>
       <c r="F9" t="n">
-        <v>704.8634210526316</v>
+        <v>48.32006306851044</v>
       </c>
       <c r="G9" t="n">
-        <v>669.7602631578948</v>
+        <v>17.84210526315789</v>
       </c>
       <c r="H9" t="n">
-        <v>17.84210526315789</v>
+        <v>14.55263157894737</v>
       </c>
       <c r="I9" t="n">
-        <v>14.55263157894737</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="J9" t="n">
-        <v>2.210526315789474</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="K9" t="n">
-        <v>1.236842105263158</v>
+        <v>8.243385693254115</v>
       </c>
       <c r="L9" t="n">
-        <v>113.5965789473684</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="M9" t="n">
-        <v>3.263157894736842</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="N9" t="n">
-        <v>1.789473684210526</v>
+        <v>10.26430337206653</v>
       </c>
       <c r="O9" t="n">
-        <v>141.2281578947369</v>
+        <v>100.1842105263158</v>
       </c>
       <c r="P9" t="n">
-        <v>100.1842105263158</v>
+        <v>24.73684210526316</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.1842105263158</v>
+        <v>75.44736842105263</v>
       </c>
       <c r="R9" t="n">
-        <v>24.73684210526316</v>
+        <v>67.53686404385088</v>
       </c>
       <c r="S9" t="n">
-        <v>75.44736842105263</v>
+        <v>66.70378354978355</v>
       </c>
       <c r="T9" t="n">
-        <v>929.0571052631578</v>
+        <v>81.97368421052632</v>
       </c>
       <c r="U9" t="n">
-        <v>918.322894736842</v>
+        <v>63.18421052631579</v>
       </c>
       <c r="V9" t="n">
-        <v>81.97368421052632</v>
+        <v>6.763157894736842</v>
       </c>
       <c r="W9" t="n">
-        <v>63.18421052631579</v>
+        <v>3.368421052631579</v>
       </c>
       <c r="X9" t="n">
-        <v>6.763157894736842</v>
+        <v>18.32890541476068</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.368421052631579</v>
+        <v>19.44736842105263</v>
       </c>
       <c r="Z9" t="n">
-        <v>248.4652631578948</v>
+        <v>9.763157894736842</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.44736842105263</v>
+        <v>32.66679149359413</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.763157894736842</v>
+        <v>132.0263157894737</v>
       </c>
       <c r="AC9" t="n">
-        <v>448.6468421052632</v>
+        <v>39.39473684210526</v>
       </c>
       <c r="AD9" t="n">
-        <v>132.0263157894737</v>
+        <v>92.63157894736842</v>
       </c>
       <c r="AE9" t="n">
-        <v>132.0263157894737</v>
+        <v>65.82828402737614</v>
       </c>
       <c r="AF9" t="n">
-        <v>39.39473684210526</v>
+        <v>66.86509995706049</v>
       </c>
       <c r="AG9" t="n">
-        <v>92.63157894736842</v>
+        <v>85.39473684210526</v>
       </c>
       <c r="AH9" t="n">
-        <v>906.1273684210526</v>
+        <v>63.68421052631579</v>
       </c>
       <c r="AI9" t="n">
-        <v>921.0689473684212</v>
+        <v>9.973684210526315</v>
       </c>
       <c r="AJ9" t="n">
-        <v>85.39473684210526</v>
+        <v>4.447368421052632</v>
       </c>
       <c r="AK9" t="n">
-        <v>63.68421052631579</v>
+        <v>19.29953021978022</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.973684210526315</v>
+        <v>21.42105263157895</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.447368421052632</v>
+        <v>9.421052631578947</v>
       </c>
       <c r="AN9" t="n">
-        <v>262.4118421052631</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21.42105263157895</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>9.421052631578947</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>410.8331578947368</v>
+        <v>30.35695350263771</v>
       </c>
     </row>
     <row r="10">
@@ -1724,127 +1637,118 @@
         <v>22.89473684210526</v>
       </c>
       <c r="C10" t="n">
-        <v>22.89473684210526</v>
+        <v>5.421052631578948</v>
       </c>
       <c r="D10" t="n">
-        <v>5.421052631578948</v>
+        <v>17.47368421052632</v>
       </c>
       <c r="E10" t="n">
-        <v>17.47368421052632</v>
+        <v>49.56372373240794</v>
       </c>
       <c r="F10" t="n">
-        <v>691.4907894736842</v>
+        <v>45.97881048775785</v>
       </c>
       <c r="G10" t="n">
-        <v>641.9207894736843</v>
+        <v>18.65789473684211</v>
       </c>
       <c r="H10" t="n">
-        <v>18.65789473684211</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="I10" t="n">
-        <v>14.47368421052632</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="J10" t="n">
-        <v>2.763157894736842</v>
+        <v>1.657894736842105</v>
       </c>
       <c r="K10" t="n">
-        <v>1.657894736842105</v>
+        <v>9.952284557547715</v>
       </c>
       <c r="L10" t="n">
-        <v>138.1578947368421</v>
+        <v>4.421052631578948</v>
       </c>
       <c r="M10" t="n">
-        <v>4.421052631578948</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="N10" t="n">
-        <v>2.368421052631579</v>
+        <v>13.28739145941778</v>
       </c>
       <c r="O10" t="n">
-        <v>184.6492105263158</v>
+        <v>97.47368421052632</v>
       </c>
       <c r="P10" t="n">
-        <v>97.47368421052632</v>
+        <v>23.57894736842105</v>
       </c>
       <c r="Q10" t="n">
-        <v>97.47368421052632</v>
+        <v>73.89473684210526</v>
       </c>
       <c r="R10" t="n">
-        <v>23.57894736842105</v>
+        <v>68.64777665317139</v>
       </c>
       <c r="S10" t="n">
-        <v>73.89473684210526</v>
+        <v>69.04191536533642</v>
       </c>
       <c r="T10" t="n">
-        <v>960.0578947368421</v>
+        <v>79.42105263157895</v>
       </c>
       <c r="U10" t="n">
-        <v>966.0736842105264</v>
+        <v>62.05263157894737</v>
       </c>
       <c r="V10" t="n">
-        <v>79.42105263157895</v>
+        <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>62.05263157894737</v>
+        <v>4.605263157894737</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>21.17582485058801</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.605263157894737</v>
+        <v>19.68421052631579</v>
       </c>
       <c r="Z10" t="n">
-        <v>294.5171052631579</v>
+        <v>9.447368421052632</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.68421052631579</v>
+        <v>32.57272517833044</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.447368421052632</v>
+        <v>141.4473684210526</v>
       </c>
       <c r="AC10" t="n">
-        <v>454.7871052631579</v>
+        <v>39.36842105263158</v>
       </c>
       <c r="AD10" t="n">
-        <v>141.4473684210526</v>
+        <v>102.0789473684211</v>
       </c>
       <c r="AE10" t="n">
-        <v>141.4473684210526</v>
+        <v>68.47034412955466</v>
       </c>
       <c r="AF10" t="n">
-        <v>39.36842105263158</v>
+        <v>69.19533911702332</v>
       </c>
       <c r="AG10" t="n">
-        <v>102.0789473684211</v>
+        <v>92.21052631578948</v>
       </c>
       <c r="AH10" t="n">
-        <v>957.2331578947369</v>
+        <v>69.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>966.9157894736843</v>
+        <v>11.07894736842105</v>
       </c>
       <c r="AJ10" t="n">
-        <v>92.21052631578948</v>
+        <v>5.684210526315789</v>
       </c>
       <c r="AK10" t="n">
-        <v>69.5</v>
+        <v>24.32938374783112</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.07894736842105</v>
+        <v>22.68421052631579</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.684210526315789</v>
+        <v>10.13157894736842</v>
       </c>
       <c r="AN10" t="n">
-        <v>337.2684210526316</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>22.68421052631579</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>10.13157894736842</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>452.071052631579</v>
+        <v>32.48738124156545</v>
       </c>
     </row>
     <row r="11">
@@ -1857,127 +1761,118 @@
         <v>18.62162162162162</v>
       </c>
       <c r="C11" t="n">
-        <v>18.62162162162162</v>
+        <v>3.945945945945946</v>
       </c>
       <c r="D11" t="n">
-        <v>3.945945945945946</v>
+        <v>14.67567567567568</v>
       </c>
       <c r="E11" t="n">
-        <v>14.67567567567568</v>
+        <v>46.97092941292942</v>
       </c>
       <c r="F11" t="n">
-        <v>680.1567567567567</v>
+        <v>43.30131313731314</v>
       </c>
       <c r="G11" t="n">
-        <v>627.1921621621622</v>
+        <v>15.7027027027027</v>
       </c>
       <c r="H11" t="n">
-        <v>15.7027027027027</v>
+        <v>12.64864864864865</v>
       </c>
       <c r="I11" t="n">
-        <v>12.64864864864865</v>
+        <v>2.378378378378379</v>
       </c>
       <c r="J11" t="n">
-        <v>2.378378378378379</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="K11" t="n">
-        <v>1.297297297297297</v>
+        <v>7.055743985743987</v>
       </c>
       <c r="L11" t="n">
-        <v>103.1532432432432</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>1.432432432432432</v>
       </c>
       <c r="N11" t="n">
-        <v>1.432432432432432</v>
+        <v>7.873319374319374</v>
       </c>
       <c r="O11" t="n">
-        <v>115.3154054054054</v>
+        <v>104.972972972973</v>
       </c>
       <c r="P11" t="n">
-        <v>104.972972972973</v>
+        <v>22.05405405405405</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.972972972973</v>
+        <v>82.91891891891892</v>
       </c>
       <c r="R11" t="n">
-        <v>22.05405405405405</v>
+        <v>74.81590456390455</v>
       </c>
       <c r="S11" t="n">
-        <v>82.91891891891892</v>
+        <v>74.00591990891991</v>
       </c>
       <c r="T11" t="n">
-        <v>1083.055945945946</v>
+        <v>87.97297297297297</v>
       </c>
       <c r="U11" t="n">
-        <v>1071.386486486487</v>
+        <v>70.78378378378379</v>
       </c>
       <c r="V11" t="n">
-        <v>87.97297297297297</v>
+        <v>7.72972972972973</v>
       </c>
       <c r="W11" t="n">
-        <v>70.78378378378379</v>
+        <v>3.972972972972973</v>
       </c>
       <c r="X11" t="n">
-        <v>7.72972972972973</v>
+        <v>18.2178221958222</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.972972972972973</v>
+        <v>17.97297297297297</v>
       </c>
       <c r="Z11" t="n">
-        <v>264.2340540540541</v>
+        <v>9.27027027027027</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.97297297297297</v>
+        <v>32.77119928719929</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.27027027027027</v>
+        <v>137</v>
       </c>
       <c r="AC11" t="n">
-        <v>474.3116216216216</v>
+        <v>36.10810810810811</v>
       </c>
       <c r="AD11" t="n">
-        <v>137</v>
+        <v>100.8918918918919</v>
       </c>
       <c r="AE11" t="n">
-        <v>137</v>
+        <v>70.12964983664983</v>
       </c>
       <c r="AF11" t="n">
-        <v>36.10810810810811</v>
+        <v>71.67747757647757</v>
       </c>
       <c r="AG11" t="n">
-        <v>100.8918918918919</v>
+        <v>94.67567567567568</v>
       </c>
       <c r="AH11" t="n">
-        <v>1015.956756756757</v>
+        <v>73.27027027027027</v>
       </c>
       <c r="AI11" t="n">
-        <v>1039.015675675676</v>
+        <v>9.756756756756756</v>
       </c>
       <c r="AJ11" t="n">
-        <v>94.67567567567568</v>
+        <v>5.216216216216216</v>
       </c>
       <c r="AK11" t="n">
-        <v>73.27027027027027</v>
+        <v>21.7554948024948</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.756756756756756</v>
+        <v>20.10810810810811</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.216216216216216</v>
+        <v>9.378378378378379</v>
       </c>
       <c r="AN11" t="n">
-        <v>314.0086486486487</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>20.10810810810811</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>9.378378378378379</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>472.1745945945946</v>
+        <v>32.78626225126225</v>
       </c>
     </row>
     <row r="12">
@@ -1990,127 +1885,118 @@
         <v>21.83783783783784</v>
       </c>
       <c r="C12" t="n">
-        <v>21.83783783783784</v>
+        <v>4.324324324324325</v>
       </c>
       <c r="D12" t="n">
-        <v>4.324324324324325</v>
+        <v>17.51351351351351</v>
       </c>
       <c r="E12" t="n">
-        <v>17.51351351351351</v>
+        <v>56.64923891198891</v>
       </c>
       <c r="F12" t="n">
-        <v>793.6972972972973</v>
+        <v>53.28707215869716</v>
       </c>
       <c r="G12" t="n">
-        <v>746.2556756756757</v>
+        <v>18.37837837837838</v>
       </c>
       <c r="H12" t="n">
-        <v>18.37837837837838</v>
+        <v>15.27027027027027</v>
       </c>
       <c r="I12" t="n">
-        <v>15.27027027027027</v>
+        <v>2.297297297297297</v>
       </c>
       <c r="J12" t="n">
-        <v>2.297297297297297</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="K12" t="n">
-        <v>1.351351351351351</v>
+        <v>7.484413919413919</v>
       </c>
       <c r="L12" t="n">
-        <v>104.5045945945946</v>
+        <v>3.27027027027027</v>
       </c>
       <c r="M12" t="n">
-        <v>3.27027027027027</v>
+        <v>1.756756756756757</v>
       </c>
       <c r="N12" t="n">
-        <v>1.756756756756757</v>
+        <v>11.04767498267498</v>
       </c>
       <c r="O12" t="n">
-        <v>153.1532432432433</v>
+        <v>116.027027027027</v>
       </c>
       <c r="P12" t="n">
-        <v>116.027027027027</v>
+        <v>25.54054054054054</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.027027027027</v>
+        <v>90.48648648648648</v>
       </c>
       <c r="R12" t="n">
-        <v>25.54054054054054</v>
+        <v>73.24854308979309</v>
       </c>
       <c r="S12" t="n">
-        <v>90.48648648648648</v>
+        <v>73.4489554004554</v>
       </c>
       <c r="T12" t="n">
-        <v>1029.126486486487</v>
+        <v>96.70270270270271</v>
       </c>
       <c r="U12" t="n">
-        <v>1031.091891891892</v>
+        <v>78</v>
       </c>
       <c r="V12" t="n">
-        <v>96.70270270270271</v>
+        <v>7.27027027027027</v>
       </c>
       <c r="W12" t="n">
-        <v>78</v>
+        <v>3.648648648648649</v>
       </c>
       <c r="X12" t="n">
-        <v>7.27027027027027</v>
+        <v>18.49186768636769</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.648648648648649</v>
+        <v>19.05405405405405</v>
       </c>
       <c r="Z12" t="n">
-        <v>257.2067567567568</v>
+        <v>9.243243243243244</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.05405405405405</v>
+        <v>32.57165864765864</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.243243243243244</v>
+        <v>137.3783783783784</v>
       </c>
       <c r="AC12" t="n">
-        <v>453.8291891891892</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="n">
-        <v>137.3783783783784</v>
+        <v>97.37837837837837</v>
       </c>
       <c r="AE12" t="n">
-        <v>137.3783783783784</v>
+        <v>68.98440826403326</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>72.35171391446391</v>
       </c>
       <c r="AG12" t="n">
-        <v>97.37837837837837</v>
+        <v>90.54054054054055</v>
       </c>
       <c r="AH12" t="n">
-        <v>970.3664864864865</v>
+        <v>69.37837837837837</v>
       </c>
       <c r="AI12" t="n">
-        <v>1017.002972972973</v>
+        <v>10.2972972972973</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90.54054054054055</v>
+        <v>5.297297297297297</v>
       </c>
       <c r="AK12" t="n">
-        <v>69.37837837837837</v>
+        <v>23.02510944460944</v>
       </c>
       <c r="AL12" t="n">
-        <v>10.2972972972973</v>
+        <v>21.08108108108108</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.297297297297297</v>
+        <v>9.972972972972974</v>
       </c>
       <c r="AN12" t="n">
-        <v>322.1627027027027</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>21.08108108108108</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>9.972972972972974</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>490.8267567567568</v>
+        <v>35.12504113454114</v>
       </c>
     </row>
     <row r="13">
@@ -2123,127 +2009,118 @@
         <v>26.7027027027027</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7027027027027</v>
+        <v>4.756756756756757</v>
       </c>
       <c r="D13" t="n">
-        <v>4.756756756756757</v>
+        <v>21.94594594594595</v>
       </c>
       <c r="E13" t="n">
-        <v>21.94594594594595</v>
+        <v>58.17086037386037</v>
       </c>
       <c r="F13" t="n">
-        <v>836.0945945945946</v>
+        <v>55.32485972585972</v>
       </c>
       <c r="G13" t="n">
-        <v>795.4264864864865</v>
+        <v>23.37837837837838</v>
       </c>
       <c r="H13" t="n">
-        <v>23.37837837837838</v>
+        <v>19.54054054054054</v>
       </c>
       <c r="I13" t="n">
-        <v>19.54054054054054</v>
+        <v>2.837837837837838</v>
       </c>
       <c r="J13" t="n">
-        <v>2.837837837837838</v>
+        <v>1.459459459459459</v>
       </c>
       <c r="K13" t="n">
+        <v>8.871893871893873</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.594594594594595</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.459459459459459</v>
       </c>
-      <c r="L13" t="n">
-        <v>128.3783783783784</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.594594594594595</v>
-      </c>
       <c r="N13" t="n">
-        <v>1.459459459459459</v>
+        <v>8.460047025047025</v>
       </c>
       <c r="O13" t="n">
-        <v>121.8467567567568</v>
+        <v>117.7837837837838</v>
       </c>
       <c r="P13" t="n">
-        <v>117.7837837837838</v>
+        <v>21.43243243243243</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.7837837837838</v>
+        <v>96.35135135135135</v>
       </c>
       <c r="R13" t="n">
-        <v>21.43243243243243</v>
+        <v>74.24327083727083</v>
       </c>
       <c r="S13" t="n">
-        <v>96.35135135135135</v>
+        <v>75.12843572643573</v>
       </c>
       <c r="T13" t="n">
-        <v>1067.510810810811</v>
+        <v>100.2972972972973</v>
       </c>
       <c r="U13" t="n">
-        <v>1080.065945945946</v>
+        <v>84.24324324324324</v>
       </c>
       <c r="V13" t="n">
-        <v>100.2972972972973</v>
+        <v>8.513513513513514</v>
       </c>
       <c r="W13" t="n">
-        <v>84.24324324324324</v>
+        <v>4.405405405405405</v>
       </c>
       <c r="X13" t="n">
-        <v>8.513513513513514</v>
+        <v>20.70690860490861</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.405405405405405</v>
+        <v>15.72972972972973</v>
       </c>
       <c r="Z13" t="n">
-        <v>298.1532432432433</v>
+        <v>7.594594594594595</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.72972972972973</v>
+        <v>28.20424216324216</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.594594594594595</v>
+        <v>148.2702702702703</v>
       </c>
       <c r="AC13" t="n">
-        <v>407.032972972973</v>
+        <v>33.67567567567568</v>
       </c>
       <c r="AD13" t="n">
-        <v>148.2702702702703</v>
+        <v>114.5945945945946</v>
       </c>
       <c r="AE13" t="n">
-        <v>148.2702702702703</v>
+        <v>73.18292725292726</v>
       </c>
       <c r="AF13" t="n">
-        <v>33.67567567567568</v>
+        <v>74.85148303948304</v>
       </c>
       <c r="AG13" t="n">
-        <v>114.5945945945946</v>
+        <v>102.2432432432432</v>
       </c>
       <c r="AH13" t="n">
-        <v>1051.662972972973</v>
+        <v>84.4054054054054</v>
       </c>
       <c r="AI13" t="n">
-        <v>1075.180810810811</v>
+        <v>10.51351351351351</v>
       </c>
       <c r="AJ13" t="n">
-        <v>102.2432432432432</v>
+        <v>5.945945945945946</v>
       </c>
       <c r="AK13" t="n">
-        <v>84.4054054054054</v>
+        <v>24.70754528354528</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.51351351351351</v>
+        <v>16.67567567567568</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.945945945945946</v>
+        <v>8.054054054054054</v>
       </c>
       <c r="AN13" t="n">
-        <v>353.8735135135135</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>16.67567567567568</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>8.054054054054054</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>431.2064864864865</v>
+        <v>30.06359334359334</v>
       </c>
     </row>
     <row r="14">
@@ -2256,127 +2133,118 @@
         <v>18.56756756756757</v>
       </c>
       <c r="C14" t="n">
-        <v>18.56756756756757</v>
+        <v>4.351351351351352</v>
       </c>
       <c r="D14" t="n">
-        <v>4.351351351351352</v>
+        <v>14.21621621621622</v>
       </c>
       <c r="E14" t="n">
-        <v>14.21621621621622</v>
+        <v>48.25602656802657</v>
       </c>
       <c r="F14" t="n">
-        <v>673.3110810810811</v>
+        <v>45.45388277488277</v>
       </c>
       <c r="G14" t="n">
-        <v>634.4467567567567</v>
+        <v>15.83783783783784</v>
       </c>
       <c r="H14" t="n">
-        <v>15.83783783783784</v>
+        <v>12.48648648648649</v>
       </c>
       <c r="I14" t="n">
-        <v>12.48648648648649</v>
+        <v>1.864864864864865</v>
       </c>
       <c r="J14" t="n">
-        <v>1.864864864864865</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>7.322587322587323</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>3.378378378378379</v>
       </c>
       <c r="M14" t="n">
-        <v>3.378378378378379</v>
+        <v>1.648648648648649</v>
       </c>
       <c r="N14" t="n">
-        <v>1.648648648648649</v>
+        <v>10.02151695151695</v>
       </c>
       <c r="O14" t="n">
-        <v>138.2883783783784</v>
+        <v>95.24324324324324</v>
       </c>
       <c r="P14" t="n">
-        <v>95.24324324324324</v>
+        <v>23.97297297297297</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.24324324324324</v>
+        <v>71.27027027027027</v>
       </c>
       <c r="R14" t="n">
-        <v>23.97297297297297</v>
+        <v>68.699605997606</v>
       </c>
       <c r="S14" t="n">
-        <v>71.27027027027027</v>
+        <v>69.41407605907605</v>
       </c>
       <c r="T14" t="n">
-        <v>961.2875675675675</v>
+        <v>78.10810810810811</v>
       </c>
       <c r="U14" t="n">
-        <v>970.0702702702703</v>
+        <v>60.2972972972973</v>
       </c>
       <c r="V14" t="n">
-        <v>78.10810810810811</v>
+        <v>6.108108108108108</v>
       </c>
       <c r="W14" t="n">
-        <v>60.2972972972973</v>
+        <v>3.324324324324324</v>
       </c>
       <c r="X14" t="n">
-        <v>6.108108108108108</v>
+        <v>17.44392844992845</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.324324324324324</v>
+        <v>18.48648648648649</v>
       </c>
       <c r="Z14" t="n">
-        <v>241.937027027027</v>
+        <v>8.594594594594595</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.48648648648649</v>
+        <v>33.02838748638749</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.594594594594595</v>
+        <v>130.3783783783784</v>
       </c>
       <c r="AC14" t="n">
-        <v>460.8783783783784</v>
+        <v>39.81081081081081</v>
       </c>
       <c r="AD14" t="n">
-        <v>130.3783783783784</v>
+        <v>90.56756756756756</v>
       </c>
       <c r="AE14" t="n">
-        <v>130.3783783783784</v>
+        <v>65.0196173016173</v>
       </c>
       <c r="AF14" t="n">
-        <v>39.81081081081081</v>
+        <v>66.58802702702702</v>
       </c>
       <c r="AG14" t="n">
-        <v>90.56756756756756</v>
+        <v>86.21621621621621</v>
       </c>
       <c r="AH14" t="n">
-        <v>907.9735135135135</v>
+        <v>63.54054054054054</v>
       </c>
       <c r="AI14" t="n">
-        <v>929.5394594594594</v>
+        <v>8.243243243243244</v>
       </c>
       <c r="AJ14" t="n">
-        <v>86.21621621621621</v>
+        <v>4.135135135135135</v>
       </c>
       <c r="AK14" t="n">
-        <v>63.54054054054054</v>
+        <v>19.8147000027</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.243243243243244</v>
+        <v>22.54054054054054</v>
       </c>
       <c r="AM14" t="n">
-        <v>4.135135135135135</v>
+        <v>10.56756756756757</v>
       </c>
       <c r="AN14" t="n">
-        <v>275.3602702702703</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>22.54054054054054</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>10.56756756756757</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>483.3432432432433</v>
+        <v>34.75609524709525</v>
       </c>
     </row>
     <row r="15">
@@ -2389,127 +2257,118 @@
         <v>16.39473684210526</v>
       </c>
       <c r="C15" t="n">
-        <v>16.39473684210526</v>
+        <v>5.342105263157895</v>
       </c>
       <c r="D15" t="n">
-        <v>5.342105263157895</v>
+        <v>11.05263157894737</v>
       </c>
       <c r="E15" t="n">
-        <v>11.05263157894737</v>
+        <v>38.02694197031039</v>
       </c>
       <c r="F15" t="n">
-        <v>552.7794736842105</v>
+        <v>34.66395180258338</v>
       </c>
       <c r="G15" t="n">
-        <v>504.4305263157895</v>
+        <v>13.02631578947368</v>
       </c>
       <c r="H15" t="n">
-        <v>13.02631578947368</v>
+        <v>9.026315789473685</v>
       </c>
       <c r="I15" t="n">
-        <v>9.026315789473685</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="J15" t="n">
-        <v>2.368421052631579</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="K15" t="n">
-        <v>1.105263157894737</v>
+        <v>6.2791661846925</v>
       </c>
       <c r="L15" t="n">
-        <v>91.22815789473684</v>
+        <v>3.921052631578947</v>
       </c>
       <c r="M15" t="n">
-        <v>3.921052631578947</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="N15" t="n">
-        <v>1.684210526315789</v>
+        <v>8.663634181607867</v>
       </c>
       <c r="O15" t="n">
-        <v>125.4384210526316</v>
+        <v>87.18421052631579</v>
       </c>
       <c r="P15" t="n">
-        <v>87.18421052631579</v>
+        <v>24.68421052631579</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.18421052631579</v>
+        <v>62.5</v>
       </c>
       <c r="R15" t="n">
-        <v>24.68421052631579</v>
+        <v>64.25314372469636</v>
       </c>
       <c r="S15" t="n">
-        <v>62.5</v>
+        <v>63.6277688451899</v>
       </c>
       <c r="T15" t="n">
-        <v>931.1213157894737</v>
+        <v>70.39473684210526</v>
       </c>
       <c r="U15" t="n">
-        <v>921.6507894736843</v>
+        <v>51.97368421052632</v>
       </c>
       <c r="V15" t="n">
-        <v>70.39473684210526</v>
+        <v>7.342105263157895</v>
       </c>
       <c r="W15" t="n">
-        <v>51.97368421052632</v>
+        <v>3.552631578947369</v>
       </c>
       <c r="X15" t="n">
-        <v>7.342105263157895</v>
+        <v>17.26544081357239</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.552631578947369</v>
+        <v>18.57894736842105</v>
       </c>
       <c r="Z15" t="n">
-        <v>251.7539473684211</v>
+        <v>8.684210526315789</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.57894736842105</v>
+        <v>28.38817418546366</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.684210526315789</v>
+        <v>127.7631578947368</v>
       </c>
       <c r="AC15" t="n">
-        <v>411.4378947368421</v>
+        <v>41.81578947368421</v>
       </c>
       <c r="AD15" t="n">
-        <v>127.7631578947368</v>
+        <v>85.94736842105263</v>
       </c>
       <c r="AE15" t="n">
-        <v>127.7631578947368</v>
+        <v>63.56182060921535</v>
       </c>
       <c r="AF15" t="n">
-        <v>41.81578947368421</v>
+        <v>63.45854000385579</v>
       </c>
       <c r="AG15" t="n">
-        <v>85.94736842105263</v>
+        <v>82.36842105263158</v>
       </c>
       <c r="AH15" t="n">
-        <v>922.0763157894737</v>
+        <v>58.18421052631579</v>
       </c>
       <c r="AI15" t="n">
-        <v>920.5042105263159</v>
+        <v>10.73684210526316</v>
       </c>
       <c r="AJ15" t="n">
-        <v>82.36842105263158</v>
+        <v>5.026315789473684</v>
       </c>
       <c r="AK15" t="n">
-        <v>58.18421052631579</v>
+        <v>20.34295373048005</v>
       </c>
       <c r="AL15" t="n">
-        <v>10.73684210526316</v>
+        <v>23.47368421052632</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.026315789473684</v>
+        <v>10.3421052631579</v>
       </c>
       <c r="AN15" t="n">
-        <v>295.2173684210526</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>23.47368421052632</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>10.3421052631579</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>470.2097368421053</v>
+        <v>32.5110586080586</v>
       </c>
     </row>
     <row r="16">
@@ -2522,127 +2381,118 @@
         <v>19.92105263157895</v>
       </c>
       <c r="C16" t="n">
-        <v>19.92105263157895</v>
+        <v>4.289473684210527</v>
       </c>
       <c r="D16" t="n">
-        <v>4.289473684210527</v>
+        <v>15.63157894736842</v>
       </c>
       <c r="E16" t="n">
-        <v>15.63157894736842</v>
+        <v>51.13020206985996</v>
       </c>
       <c r="F16" t="n">
-        <v>691.5599999999999</v>
+        <v>47.87891990903833</v>
       </c>
       <c r="G16" t="n">
-        <v>647.3005263157894</v>
+        <v>17.02631578947368</v>
       </c>
       <c r="H16" t="n">
-        <v>17.02631578947368</v>
+        <v>13.68421052631579</v>
       </c>
       <c r="I16" t="n">
-        <v>13.68421052631579</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="J16" t="n">
-        <v>1.526315789473684</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7894736842105263</v>
+        <v>5.567283593599384</v>
       </c>
       <c r="L16" t="n">
-        <v>75</v>
+        <v>3.763157894736842</v>
       </c>
       <c r="M16" t="n">
-        <v>3.763157894736842</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="N16" t="n">
-        <v>1.868421052631579</v>
+        <v>11.31949817726134</v>
       </c>
       <c r="O16" t="n">
-        <v>153.0702631578947</v>
+        <v>103.4473684210526</v>
       </c>
       <c r="P16" t="n">
-        <v>103.4473684210526</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.4473684210526</v>
+        <v>79.94736842105263</v>
       </c>
       <c r="R16" t="n">
-        <v>23.5</v>
+        <v>70.75523763517184</v>
       </c>
       <c r="S16" t="n">
-        <v>79.94736842105263</v>
+        <v>70.64537030951504</v>
       </c>
       <c r="T16" t="n">
-        <v>951.3773684210526</v>
+        <v>86.57894736842105</v>
       </c>
       <c r="U16" t="n">
-        <v>949.8115789473683</v>
+        <v>68.73684210526316</v>
       </c>
       <c r="V16" t="n">
-        <v>86.57894736842105</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>68.73684210526316</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="X16" t="n">
-        <v>5</v>
+        <v>13.25536808367072</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.368421052631579</v>
+        <v>19.65789473684211</v>
       </c>
       <c r="Z16" t="n">
-        <v>179.1665789473684</v>
+        <v>10.10526315789474</v>
       </c>
       <c r="AA16" t="n">
+        <v>32.6263954729481</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>124.6842105263158</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>33.6578947368421</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>91.02631578947368</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>69.2900868648895</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>72.90134104053841</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>84.89473684210526</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>65.65789473684211</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.421052631578948</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.947368421052631</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15.53563603063603</v>
+      </c>
+      <c r="AL16" t="n">
         <v>19.65789473684211</v>
       </c>
-      <c r="AB16" t="n">
-        <v>10.10526315789474</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>438.6336842105264</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>124.6842105263158</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>124.6842105263158</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>33.6578947368421</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>91.02631578947368</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>930.985</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>979.7313157894737</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>84.89473684210526</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>65.65789473684211</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>6.421052631578948</v>
-      </c>
       <c r="AM16" t="n">
-        <v>2.947368421052631</v>
+        <v>9.421052631578947</v>
       </c>
       <c r="AN16" t="n">
-        <v>206.7542105263158</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19.65789473684211</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>9.421052631578947</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>426.8515789473684</v>
+        <v>31.68766941391941</v>
       </c>
     </row>
     <row r="17">
@@ -2655,127 +2505,118 @@
         <v>18.84210526315789</v>
       </c>
       <c r="C17" t="n">
-        <v>18.84210526315789</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>14.8421052631579</v>
       </c>
       <c r="E17" t="n">
-        <v>14.8421052631579</v>
+        <v>47.53186620397147</v>
       </c>
       <c r="F17" t="n">
-        <v>661.3734210526316</v>
+        <v>43.30531535569693</v>
       </c>
       <c r="G17" t="n">
-        <v>601.2515789473684</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="H17" t="n">
-        <v>15.78947368421053</v>
+        <v>12.55263157894737</v>
       </c>
       <c r="I17" t="n">
-        <v>12.55263157894737</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="J17" t="n">
-        <v>1.789473684210526</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7894736842105263</v>
+        <v>4.945698476961636</v>
       </c>
       <c r="L17" t="n">
-        <v>69.73684210526316</v>
+        <v>3.078947368421053</v>
       </c>
       <c r="M17" t="n">
-        <v>3.078947368421053</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="N17" t="n">
-        <v>1.394736842105263</v>
+        <v>7.700026026604974</v>
       </c>
       <c r="O17" t="n">
-        <v>108.3334210526316</v>
+        <v>109.3157894736842</v>
       </c>
       <c r="P17" t="n">
-        <v>109.3157894736842</v>
+        <v>23.76315789473684</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.3157894736842</v>
+        <v>85.55263157894737</v>
       </c>
       <c r="R17" t="n">
-        <v>23.76315789473684</v>
+        <v>70.40064261615578</v>
       </c>
       <c r="S17" t="n">
-        <v>85.55263157894737</v>
+        <v>70.69090476190476</v>
       </c>
       <c r="T17" t="n">
-        <v>983.2776315789474</v>
+        <v>92.05263157894737</v>
       </c>
       <c r="U17" t="n">
-        <v>986.5968421052631</v>
+        <v>73.81578947368421</v>
       </c>
       <c r="V17" t="n">
-        <v>92.05263157894737</v>
+        <v>6.763157894736842</v>
       </c>
       <c r="W17" t="n">
-        <v>73.81578947368421</v>
+        <v>3.526315789473684</v>
       </c>
       <c r="X17" t="n">
-        <v>6.763157894736842</v>
+        <v>16.58732003084635</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.526315789473684</v>
+        <v>18.81578947368421</v>
       </c>
       <c r="Z17" t="n">
-        <v>231.0528947368421</v>
+        <v>9.526315789473685</v>
       </c>
       <c r="AA17" t="n">
-        <v>18.81578947368421</v>
+        <v>32.42712439753229</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.526315789473685</v>
+        <v>132.4473684210526</v>
       </c>
       <c r="AC17" t="n">
-        <v>449.806052631579</v>
+        <v>36.1578947368421</v>
       </c>
       <c r="AD17" t="n">
-        <v>132.4473684210526</v>
+        <v>96.28947368421052</v>
       </c>
       <c r="AE17" t="n">
-        <v>132.4473684210526</v>
+        <v>67.71389574898785</v>
       </c>
       <c r="AF17" t="n">
-        <v>36.1578947368421</v>
+        <v>68.98424045691151</v>
       </c>
       <c r="AG17" t="n">
-        <v>96.28947368421052</v>
+        <v>88.52631578947368</v>
       </c>
       <c r="AH17" t="n">
-        <v>947.6257894736842</v>
+        <v>67.97368421052632</v>
       </c>
       <c r="AI17" t="n">
-        <v>965.6631578947367</v>
+        <v>9.026315789473685</v>
       </c>
       <c r="AJ17" t="n">
-        <v>88.52631578947368</v>
+        <v>4.210526315789473</v>
       </c>
       <c r="AK17" t="n">
-        <v>67.97368421052632</v>
+        <v>19.05241912473491</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.026315789473685</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="AM17" t="n">
-        <v>4.210526315789473</v>
+        <v>8.578947368421053</v>
       </c>
       <c r="AN17" t="n">
-        <v>266.8294736842105</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19.73684210526316</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>8.578947368421053</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>409.0031578947369</v>
+        <v>29.34413504916136</v>
       </c>
     </row>
     <row r="18">
@@ -2788,127 +2629,118 @@
         <v>20.18918918918919</v>
       </c>
       <c r="C18" t="n">
-        <v>20.18918918918919</v>
+        <v>3.756756756756757</v>
       </c>
       <c r="D18" t="n">
-        <v>3.756756756756757</v>
+        <v>16.43243243243243</v>
       </c>
       <c r="E18" t="n">
-        <v>16.43243243243243</v>
+        <v>57.53549118449118</v>
       </c>
       <c r="F18" t="n">
-        <v>780.9113513513514</v>
+        <v>54.16007961407961</v>
       </c>
       <c r="G18" t="n">
-        <v>733.8040540540541</v>
+        <v>16.48648648648649</v>
       </c>
       <c r="H18" t="n">
-        <v>16.48648648648649</v>
+        <v>13.78378378378378</v>
       </c>
       <c r="I18" t="n">
-        <v>13.78378378378378</v>
+        <v>1.72972972972973</v>
       </c>
       <c r="J18" t="n">
-        <v>1.72972972972973</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="K18" t="n">
-        <v>0.972972972972973</v>
+        <v>6.736101736101736</v>
       </c>
       <c r="L18" t="n">
-        <v>91.89189189189189</v>
+        <v>2.621621621621621</v>
       </c>
       <c r="M18" t="n">
-        <v>2.621621621621621</v>
+        <v>1.27027027027027</v>
       </c>
       <c r="N18" t="n">
-        <v>1.27027027027027</v>
+        <v>8.284665784665785</v>
       </c>
       <c r="O18" t="n">
-        <v>110.8108108108108</v>
+        <v>110.9189189189189</v>
       </c>
       <c r="P18" t="n">
-        <v>110.9189189189189</v>
+        <v>21.91891891891892</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.9189189189189</v>
+        <v>89</v>
       </c>
       <c r="R18" t="n">
-        <v>21.91891891891892</v>
+        <v>74.23137296937297</v>
       </c>
       <c r="S18" t="n">
-        <v>89</v>
+        <v>74.13599553149554</v>
       </c>
       <c r="T18" t="n">
-        <v>1010.82972972973</v>
+        <v>92.91891891891892</v>
       </c>
       <c r="U18" t="n">
-        <v>1008.258648648649</v>
+        <v>76.43243243243244</v>
       </c>
       <c r="V18" t="n">
-        <v>92.91891891891892</v>
+        <v>6.891891891891892</v>
       </c>
       <c r="W18" t="n">
-        <v>76.43243243243244</v>
+        <v>3.405405405405405</v>
       </c>
       <c r="X18" t="n">
-        <v>6.891891891891892</v>
+        <v>17.73106263106263</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.405405405405405</v>
+        <v>16.62162162162162</v>
       </c>
       <c r="Z18" t="n">
-        <v>241.3962162162162</v>
+        <v>8.054054054054054</v>
       </c>
       <c r="AA18" t="n">
-        <v>16.62162162162162</v>
+        <v>30.38754287604288</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.054054054054054</v>
+        <v>134.5135135135135</v>
       </c>
       <c r="AC18" t="n">
-        <v>415.662972972973</v>
+        <v>35.78378378378378</v>
       </c>
       <c r="AD18" t="n">
-        <v>134.5135135135135</v>
+        <v>98.72972972972973</v>
       </c>
       <c r="AE18" t="n">
-        <v>134.5135135135135</v>
+        <v>70.1111875106875</v>
       </c>
       <c r="AF18" t="n">
-        <v>35.78378378378378</v>
+        <v>72.23148032598033</v>
       </c>
       <c r="AG18" t="n">
-        <v>98.72972972972973</v>
+        <v>85.94594594594595</v>
       </c>
       <c r="AH18" t="n">
-        <v>953.9929729729729</v>
+        <v>68.13513513513513</v>
       </c>
       <c r="AI18" t="n">
-        <v>984.1700000000001</v>
+        <v>9.027027027027026</v>
       </c>
       <c r="AJ18" t="n">
-        <v>85.94594594594595</v>
+        <v>5.324324324324325</v>
       </c>
       <c r="AK18" t="n">
-        <v>68.13513513513513</v>
+        <v>24.14722452772453</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.027027027027026</v>
+        <v>17.51351351351351</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.324324324324325</v>
+        <v>8.486486486486486</v>
       </c>
       <c r="AN18" t="n">
-        <v>328.8283783783784</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17.51351351351351</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>8.486486486486486</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>406.2932432432432</v>
+        <v>29.70644024444024</v>
       </c>
     </row>
     <row r="19">
@@ -2921,127 +2753,118 @@
         <v>22.23684210526316</v>
       </c>
       <c r="C19" t="n">
-        <v>22.23684210526316</v>
+        <v>4.763157894736842</v>
       </c>
       <c r="D19" t="n">
-        <v>4.763157894736842</v>
+        <v>17.47368421052632</v>
       </c>
       <c r="E19" t="n">
-        <v>17.47368421052632</v>
+        <v>51.84978089454405</v>
       </c>
       <c r="F19" t="n">
-        <v>737.1644736842105</v>
+        <v>49.77764006169269</v>
       </c>
       <c r="G19" t="n">
-        <v>709.0110526315789</v>
+        <v>19.18421052631579</v>
       </c>
       <c r="H19" t="n">
-        <v>19.18421052631579</v>
+        <v>15.39473684210526</v>
       </c>
       <c r="I19" t="n">
-        <v>15.39473684210526</v>
+        <v>2.710526315789474</v>
       </c>
       <c r="J19" t="n">
-        <v>2.710526315789474</v>
+        <v>1.657894736842105</v>
       </c>
       <c r="K19" t="n">
-        <v>1.657894736842105</v>
+        <v>10.15278581068055</v>
       </c>
       <c r="L19" t="n">
-        <v>143.421052631579</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2.263157894736842</v>
       </c>
       <c r="N19" t="n">
-        <v>2.263157894736842</v>
+        <v>13.51841141314826</v>
       </c>
       <c r="O19" t="n">
-        <v>192.1052631578947</v>
+        <v>98.26315789473684</v>
       </c>
       <c r="P19" t="n">
-        <v>98.26315789473684</v>
+        <v>23.18421052631579</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.26315789473684</v>
+        <v>75.07894736842105</v>
       </c>
       <c r="R19" t="n">
-        <v>23.18421052631579</v>
+        <v>71.52354241372663</v>
       </c>
       <c r="S19" t="n">
-        <v>75.07894736842105</v>
+        <v>71.13880769230769</v>
       </c>
       <c r="T19" t="n">
-        <v>1022.386842105263</v>
+        <v>81.18421052631579</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.464473684211</v>
+        <v>63.6578947368421</v>
       </c>
       <c r="V19" t="n">
-        <v>81.18421052631579</v>
+        <v>6.5</v>
       </c>
       <c r="W19" t="n">
-        <v>63.6578947368421</v>
+        <v>3.578947368421053</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>18.07906304222094</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.578947368421053</v>
+        <v>19.36842105263158</v>
       </c>
       <c r="Z19" t="n">
-        <v>259.4739473684211</v>
+        <v>10.13157894736842</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.36842105263158</v>
+        <v>32.7931096491228</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.13157894736842</v>
+        <v>137.7105263157895</v>
       </c>
       <c r="AC19" t="n">
-        <v>467.5823684210526</v>
+        <v>39.28947368421053</v>
       </c>
       <c r="AD19" t="n">
-        <v>137.7105263157895</v>
+        <v>98.42105263157895</v>
       </c>
       <c r="AE19" t="n">
-        <v>137.7105263157895</v>
+        <v>66.93313119336803</v>
       </c>
       <c r="AF19" t="n">
-        <v>39.28947368421053</v>
+        <v>68.81133945440524</v>
       </c>
       <c r="AG19" t="n">
-        <v>98.42105263157895</v>
+        <v>90.73684210526316</v>
       </c>
       <c r="AH19" t="n">
-        <v>958.7894736842105</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="AI19" t="n">
-        <v>985.7763157894736</v>
+        <v>9.736842105263158</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90.73684210526316</v>
+        <v>5.578947368421052</v>
       </c>
       <c r="AK19" t="n">
-        <v>68.42105263157895</v>
+        <v>24.77467890881049</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.736842105263158</v>
+        <v>21.84210526315789</v>
       </c>
       <c r="AM19" t="n">
-        <v>5.578947368421052</v>
+        <v>10.3421052631579</v>
       </c>
       <c r="AN19" t="n">
-        <v>354.8686842105263</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>21.84210526315789</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>10.3421052631579</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>475.4813157894737</v>
+        <v>33.35093662039714</v>
       </c>
     </row>
     <row r="20">
@@ -3054,127 +2877,118 @@
         <v>24.55263157894737</v>
       </c>
       <c r="C20" t="n">
-        <v>24.55263157894737</v>
+        <v>4.131578947368421</v>
       </c>
       <c r="D20" t="n">
-        <v>4.131578947368421</v>
+        <v>20.42105263157895</v>
       </c>
       <c r="E20" t="n">
-        <v>20.42105263157895</v>
+        <v>59.46088538654327</v>
       </c>
       <c r="F20" t="n">
-        <v>833.9186842105263</v>
+        <v>56.42740967804125</v>
       </c>
       <c r="G20" t="n">
-        <v>791.4386842105263</v>
+        <v>20.63157894736842</v>
       </c>
       <c r="H20" t="n">
-        <v>20.63157894736842</v>
+        <v>17.60526315789474</v>
       </c>
       <c r="I20" t="n">
-        <v>17.60526315789474</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="J20" t="n">
+        <v>1.315789473684211</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.210911895122422</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.657894736842105</v>
+      </c>
+      <c r="M20" t="n">
         <v>2.157894736842105</v>
       </c>
-      <c r="K20" t="n">
-        <v>1.315789473684211</v>
-      </c>
-      <c r="L20" t="n">
-        <v>117.1052631578947</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.657894736842105</v>
-      </c>
       <c r="N20" t="n">
-        <v>2.157894736842105</v>
+        <v>12.09081019857336</v>
       </c>
       <c r="O20" t="n">
-        <v>171.4913157894737</v>
+        <v>125.8947368421053</v>
       </c>
       <c r="P20" t="n">
-        <v>125.8947368421053</v>
+        <v>23.21052631578947</v>
       </c>
       <c r="Q20" t="n">
-        <v>125.8947368421053</v>
+        <v>102.6842105263158</v>
       </c>
       <c r="R20" t="n">
-        <v>23.21052631578947</v>
+        <v>73.70645064584539</v>
       </c>
       <c r="S20" t="n">
-        <v>102.6842105263158</v>
+        <v>75.6625461249277</v>
       </c>
       <c r="T20" t="n">
-        <v>1034.954210526316</v>
+        <v>106.0789473684211</v>
       </c>
       <c r="U20" t="n">
-        <v>1063.070789473684</v>
+        <v>89.81578947368421</v>
       </c>
       <c r="V20" t="n">
-        <v>106.0789473684211</v>
+        <v>6.052631578947368</v>
       </c>
       <c r="W20" t="n">
-        <v>89.81578947368421</v>
+        <v>3.078947368421053</v>
       </c>
       <c r="X20" t="n">
-        <v>6.052631578947368</v>
+        <v>16.65181212647002</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.078947368421053</v>
+        <v>17.86842105263158</v>
       </c>
       <c r="Z20" t="n">
-        <v>233.9913157894737</v>
+        <v>9.263157894736842</v>
       </c>
       <c r="AA20" t="n">
-        <v>17.86842105263158</v>
+        <v>30.49439854443802</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.263157894736842</v>
+        <v>154.6315789473684</v>
       </c>
       <c r="AC20" t="n">
-        <v>430.7363157894737</v>
+        <v>37.42105263157895</v>
       </c>
       <c r="AD20" t="n">
-        <v>154.6315789473684</v>
+        <v>117.2105263157895</v>
       </c>
       <c r="AE20" t="n">
-        <v>154.6315789473684</v>
+        <v>71.61051788124156</v>
       </c>
       <c r="AF20" t="n">
-        <v>37.42105263157895</v>
+        <v>73.34847464815886</v>
       </c>
       <c r="AG20" t="n">
-        <v>117.2105263157895</v>
+        <v>105.9473684210526</v>
       </c>
       <c r="AH20" t="n">
-        <v>1006.343157894737</v>
+        <v>84.84210526315789</v>
       </c>
       <c r="AI20" t="n">
-        <v>1030.633157894737</v>
+        <v>7.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>105.9473684210526</v>
+        <v>3.815789473684211</v>
       </c>
       <c r="AK20" t="n">
-        <v>84.84210526315789</v>
+        <v>17.03165577405051</v>
       </c>
       <c r="AL20" t="n">
-        <v>7.5</v>
+        <v>18.63157894736842</v>
       </c>
       <c r="AM20" t="n">
-        <v>3.815789473684211</v>
+        <v>8.710526315789474</v>
       </c>
       <c r="AN20" t="n">
-        <v>238.4207894736842</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>18.63157894736842</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>8.710526315789474</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>432.8565789473684</v>
+        <v>30.94949734914209</v>
       </c>
     </row>
     <row r="21">
@@ -3187,127 +3001,118 @@
         <v>20.52777777777778</v>
       </c>
       <c r="C21" t="n">
-        <v>20.52777777777778</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>4.166666666666667</v>
+        <v>16.36111111111111</v>
       </c>
       <c r="E21" t="n">
-        <v>16.36111111111111</v>
+        <v>54.34843522218522</v>
       </c>
       <c r="F21" t="n">
-        <v>765.1597222222222</v>
+        <v>50.99648822473822</v>
       </c>
       <c r="G21" t="n">
-        <v>717.5608333333333</v>
+        <v>16.75</v>
       </c>
       <c r="H21" t="n">
-        <v>16.75</v>
+        <v>13.75</v>
       </c>
       <c r="I21" t="n">
-        <v>13.75</v>
+        <v>1.638888888888889</v>
       </c>
       <c r="J21" t="n">
-        <v>1.638888888888889</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6944444444444444</v>
+        <v>4.415445665445666</v>
       </c>
       <c r="L21" t="n">
-        <v>62.5</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="M21" t="n">
-        <v>3.222222222222222</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="N21" t="n">
-        <v>1.416666666666667</v>
+        <v>8.354725515225516</v>
       </c>
       <c r="O21" t="n">
-        <v>117.5925</v>
+        <v>110</v>
       </c>
       <c r="P21" t="n">
-        <v>110</v>
+        <v>23.58333333333333</v>
       </c>
       <c r="Q21" t="n">
-        <v>110</v>
+        <v>86.41666666666667</v>
       </c>
       <c r="R21" t="n">
-        <v>23.58333333333333</v>
+        <v>70.00449363599364</v>
       </c>
       <c r="S21" t="n">
-        <v>86.41666666666667</v>
+        <v>70.59751562326562</v>
       </c>
       <c r="T21" t="n">
-        <v>989.8558333333333</v>
+        <v>91.44444444444444</v>
       </c>
       <c r="U21" t="n">
-        <v>997.133611111111</v>
+        <v>74.5</v>
       </c>
       <c r="V21" t="n">
-        <v>91.44444444444444</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="W21" t="n">
-        <v>74.5</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="X21" t="n">
-        <v>4.861111111111111</v>
+        <v>15.09882400932401</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.611111111111111</v>
+        <v>19.08333333333333</v>
       </c>
       <c r="Z21" t="n">
-        <v>212.8702777777778</v>
+        <v>9.194444444444445</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.08333333333333</v>
+        <v>29.84475838975839</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.194444444444445</v>
+        <v>138.4444444444445</v>
       </c>
       <c r="AC21" t="n">
-        <v>424.0569444444444</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="AD21" t="n">
-        <v>138.4444444444445</v>
+        <v>100.1111111111111</v>
       </c>
       <c r="AE21" t="n">
-        <v>138.4444444444445</v>
+        <v>67.865659007659</v>
       </c>
       <c r="AF21" t="n">
-        <v>38.33333333333334</v>
+        <v>70.01658543308544</v>
       </c>
       <c r="AG21" t="n">
-        <v>100.1111111111111</v>
+        <v>87.08333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>962.2713888888889</v>
+        <v>66.97222222222223</v>
       </c>
       <c r="AI21" t="n">
-        <v>992.4525</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="AJ21" t="n">
-        <v>87.08333333333333</v>
+        <v>3.972222222222222</v>
       </c>
       <c r="AK21" t="n">
-        <v>66.97222222222223</v>
+        <v>20.2861093998594</v>
       </c>
       <c r="AL21" t="n">
-        <v>7.583333333333333</v>
+        <v>19.13888888888889</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.972222222222222</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AN21" t="n">
-        <v>287.9630555555556</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>19.13888888888889</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>8.888888888888889</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>429.7408333333333</v>
+        <v>30.33544725644725</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_pressure.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/metrique_pressure.xlsx
@@ -642,121 +642,121 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.77777777777778</v>
+        <v>25.57737837236299</v>
       </c>
       <c r="C2" t="n">
-        <v>4.527777777777778</v>
+        <v>4.166788419441762</v>
       </c>
       <c r="D2" t="n">
-        <v>23.25</v>
+        <v>21.41058995292123</v>
       </c>
       <c r="E2" t="n">
-        <v>59.84265725478225</v>
+        <v>55.31308364809014</v>
       </c>
       <c r="F2" t="n">
-        <v>56.41945828245829</v>
+        <v>52.15025335521475</v>
       </c>
       <c r="G2" t="n">
-        <v>23.86111111111111</v>
+        <v>21.97759441061222</v>
       </c>
       <c r="H2" t="n">
-        <v>20.22222222222222</v>
+        <v>18.6267553478586</v>
       </c>
       <c r="I2" t="n">
-        <v>3.055555555555555</v>
+        <v>2.813676299716636</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75</v>
+        <v>1.611020134260564</v>
       </c>
       <c r="K2" t="n">
-        <v>10.75320563695564</v>
+        <v>9.892657187692578</v>
       </c>
       <c r="L2" t="n">
-        <v>3.583333333333333</v>
+        <v>3.292754232406019</v>
       </c>
       <c r="M2" t="n">
-        <v>1.888888888888889</v>
+        <v>1.733554964497169</v>
       </c>
       <c r="N2" t="n">
-        <v>10.56879746642247</v>
+        <v>9.689254539609172</v>
       </c>
       <c r="O2" t="n">
-        <v>120.8888888888889</v>
+        <v>111.7103616483425</v>
       </c>
       <c r="P2" t="n">
-        <v>22.02777777777778</v>
+        <v>20.32679443823697</v>
       </c>
       <c r="Q2" t="n">
-        <v>98.86111111111111</v>
+        <v>91.38356721010557</v>
       </c>
       <c r="R2" t="n">
-        <v>73.64423260073261</v>
+        <v>68.18579093198107</v>
       </c>
       <c r="S2" t="n">
-        <v>73.84564891127391</v>
+        <v>68.39181857179648</v>
       </c>
       <c r="T2" t="n">
-        <v>103.2777777777778</v>
+        <v>95.46175767692709</v>
       </c>
       <c r="U2" t="n">
-        <v>86.5</v>
+        <v>79.97548682303365</v>
       </c>
       <c r="V2" t="n">
-        <v>8.472222222222221</v>
+        <v>7.808242880329368</v>
       </c>
       <c r="W2" t="n">
-        <v>4.416666666666667</v>
+        <v>4.066142021508265</v>
       </c>
       <c r="X2" t="n">
-        <v>19.65752859177859</v>
+        <v>18.12857651334505</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.75</v>
+        <v>16.36988532008793</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.194444444444445</v>
+        <v>8.474062136977205</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.70571560846561</v>
+        <v>29.24262009233778</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.1944444444445</v>
+        <v>140.5440402814107</v>
       </c>
       <c r="AC2" t="n">
-        <v>36.44444444444444</v>
+        <v>33.63095251301309</v>
       </c>
       <c r="AD2" t="n">
-        <v>115.75</v>
+        <v>106.9130877683976</v>
       </c>
       <c r="AE2" t="n">
-        <v>71.70613899063899</v>
+        <v>66.29717625903702</v>
       </c>
       <c r="AF2" t="n">
-        <v>73.74390908628408</v>
+        <v>68.16277552470872</v>
       </c>
       <c r="AG2" t="n">
-        <v>101.9722222222222</v>
+        <v>94.21542623186333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82.27777777777777</v>
+        <v>76.02431420612432</v>
       </c>
       <c r="AI2" t="n">
-        <v>12.27777777777778</v>
+        <v>11.35585064438947</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.444444444444445</v>
+        <v>5.95875779720528</v>
       </c>
       <c r="AK2" t="n">
-        <v>23.65023606023606</v>
+        <v>21.88359259927822</v>
       </c>
       <c r="AL2" t="n">
-        <v>20.19444444444444</v>
+        <v>18.63783602266823</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.722222222222221</v>
+        <v>8.964929516503709</v>
       </c>
       <c r="AN2" t="n">
-        <v>33.24657554945055</v>
+        <v>30.71817141943991</v>
       </c>
     </row>
     <row r="3">
@@ -766,121 +766,121 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.44736842105263</v>
+        <v>21.34391608572357</v>
       </c>
       <c r="C3" t="n">
-        <v>5.052631578947368</v>
+        <v>4.591894578775816</v>
       </c>
       <c r="D3" t="n">
-        <v>18.39473684210526</v>
+        <v>16.75202150694775</v>
       </c>
       <c r="E3" t="n">
-        <v>55.11814709851552</v>
+        <v>50.2603749566705</v>
       </c>
       <c r="F3" t="n">
-        <v>52.36628571428572</v>
+        <v>47.72167803617907</v>
       </c>
       <c r="G3" t="n">
-        <v>19.44736842105263</v>
+        <v>17.71584718302685</v>
       </c>
       <c r="H3" t="n">
-        <v>15.73684210526316</v>
+        <v>14.33517667182952</v>
       </c>
       <c r="I3" t="n">
-        <v>2.078947368421053</v>
+        <v>1.899284956914031</v>
       </c>
       <c r="J3" t="n">
-        <v>1.105263157894737</v>
+        <v>1.006043399606137</v>
       </c>
       <c r="K3" t="n">
-        <v>7.029111239637555</v>
+        <v>6.399655955296732</v>
       </c>
       <c r="L3" t="n">
-        <v>3.473684210526316</v>
+        <v>3.162179227099649</v>
       </c>
       <c r="M3" t="n">
-        <v>1.526315789473684</v>
+        <v>1.386414378774036</v>
       </c>
       <c r="N3" t="n">
-        <v>8.714581164449585</v>
+        <v>7.906618336989101</v>
       </c>
       <c r="O3" t="n">
-        <v>112.6052631578947</v>
+        <v>102.546927928845</v>
       </c>
       <c r="P3" t="n">
-        <v>24.28947368421053</v>
+        <v>22.1216798325188</v>
       </c>
       <c r="Q3" t="n">
-        <v>88.31578947368421</v>
+        <v>80.42524809632623</v>
       </c>
       <c r="R3" t="n">
-        <v>71.80923886639677</v>
+        <v>65.40270540065029</v>
       </c>
       <c r="S3" t="n">
-        <v>71.31303730480046</v>
+        <v>64.97116835399201</v>
       </c>
       <c r="T3" t="n">
-        <v>92.94736842105263</v>
+        <v>84.66578560132405</v>
       </c>
       <c r="U3" t="n">
-        <v>74.86842105263158</v>
+        <v>68.2039512559859</v>
       </c>
       <c r="V3" t="n">
-        <v>7.526315789473684</v>
+        <v>6.857459142801684</v>
       </c>
       <c r="W3" t="n">
-        <v>3.368421052631579</v>
+        <v>3.063308311581515</v>
       </c>
       <c r="X3" t="n">
-        <v>16.88554732986312</v>
+        <v>15.35393226282491</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.73684210526316</v>
+        <v>17.05602463495072</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.894736842105264</v>
+        <v>8.086988955222735</v>
       </c>
       <c r="AA3" t="n">
-        <v>29.21124590321959</v>
+        <v>26.60841982190323</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.4736842105263</v>
+        <v>127.0104865938765</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.26315789473684</v>
+        <v>33.92742203153949</v>
       </c>
       <c r="AD3" t="n">
-        <v>102.2105263157895</v>
+        <v>93.08306456233697</v>
       </c>
       <c r="AE3" t="n">
-        <v>69.09706419895895</v>
+        <v>62.95264567458965</v>
       </c>
       <c r="AF3" t="n">
-        <v>71.15247715442452</v>
+        <v>64.81297892981632</v>
       </c>
       <c r="AG3" t="n">
-        <v>93</v>
+        <v>84.69536260270689</v>
       </c>
       <c r="AH3" t="n">
-        <v>72.78947368421052</v>
+        <v>66.28236004924173</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.605263157894736</v>
+        <v>7.832796240424177</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.289473684210527</v>
+        <v>3.891934750285112</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.87132793522267</v>
+        <v>17.14139831677985</v>
       </c>
       <c r="AL3" t="n">
-        <v>19.23684210526316</v>
+        <v>17.50032242899635</v>
       </c>
       <c r="AM3" t="n">
-        <v>9.421052631578947</v>
+        <v>8.56695241290857</v>
       </c>
       <c r="AN3" t="n">
-        <v>32.73491796799691</v>
+        <v>29.77314910502536</v>
       </c>
     </row>
     <row r="4">
@@ -890,121 +890,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.18421052631579</v>
+        <v>21.38754819379146</v>
       </c>
       <c r="C4" t="n">
-        <v>4.710526315789473</v>
+        <v>4.345858224272794</v>
       </c>
       <c r="D4" t="n">
-        <v>18.47368421052632</v>
+        <v>17.04168996951867</v>
       </c>
       <c r="E4" t="n">
-        <v>54.91978266470371</v>
+        <v>50.63984502783467</v>
       </c>
       <c r="F4" t="n">
-        <v>52.30797829363619</v>
+        <v>48.24756570465983</v>
       </c>
       <c r="G4" t="n">
-        <v>19.78947368421053</v>
+        <v>18.26540452067822</v>
       </c>
       <c r="H4" t="n">
-        <v>16.21052631578947</v>
+        <v>14.95988018134307</v>
       </c>
       <c r="I4" t="n">
-        <v>2.763157894736842</v>
+        <v>2.550348396159224</v>
       </c>
       <c r="J4" t="n">
-        <v>1.684210526315789</v>
+        <v>1.5547431676779</v>
       </c>
       <c r="K4" t="n">
-        <v>10.29996319470004</v>
+        <v>9.507477871585285</v>
       </c>
       <c r="L4" t="n">
-        <v>3.657894736842105</v>
+        <v>3.377466693799771</v>
       </c>
       <c r="M4" t="n">
-        <v>1.947368421052632</v>
+        <v>1.800102473785913</v>
       </c>
       <c r="N4" t="n">
-        <v>11.14208305729358</v>
+        <v>10.30709321018704</v>
       </c>
       <c r="O4" t="n">
-        <v>115.3684210526316</v>
+        <v>106.2578494724688</v>
       </c>
       <c r="P4" t="n">
-        <v>22.94736842105263</v>
+        <v>21.1304191528699</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.42105263157895</v>
+        <v>85.12743031959889</v>
       </c>
       <c r="R4" t="n">
-        <v>74.40371293618662</v>
+        <v>68.6619255890492</v>
       </c>
       <c r="S4" t="n">
-        <v>72.72825249312091</v>
+        <v>67.08783082474295</v>
       </c>
       <c r="T4" t="n">
-        <v>97.36842105263158</v>
+        <v>89.66915462682485</v>
       </c>
       <c r="U4" t="n">
-        <v>80.13157894736842</v>
+        <v>73.80093892971608</v>
       </c>
       <c r="V4" t="n">
-        <v>7.842105263157895</v>
+        <v>7.236663523045284</v>
       </c>
       <c r="W4" t="n">
-        <v>4.131578947368421</v>
+        <v>3.818219390812978</v>
       </c>
       <c r="X4" t="n">
-        <v>20.67272785109627</v>
+        <v>19.08287982014093</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.84210526315789</v>
+        <v>16.43244885742752</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.894736842105264</v>
+        <v>8.19073578189615</v>
       </c>
       <c r="AA4" t="n">
-        <v>29.64080158438053</v>
+        <v>27.3048851426252</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.3947368421053</v>
+        <v>127.5885742528114</v>
       </c>
       <c r="AC4" t="n">
-        <v>37.57894736842105</v>
+        <v>34.60878306036576</v>
       </c>
       <c r="AD4" t="n">
-        <v>100.8157894736842</v>
+        <v>92.97979119244567</v>
       </c>
       <c r="AE4" t="n">
-        <v>70.8671001629949</v>
+        <v>65.42251087198755</v>
       </c>
       <c r="AF4" t="n">
-        <v>71.8237565942829</v>
+        <v>66.28291091691953</v>
       </c>
       <c r="AG4" t="n">
-        <v>93.94736842105263</v>
+        <v>86.58065153503534</v>
       </c>
       <c r="AH4" t="n">
-        <v>71.94736842105263</v>
+        <v>66.33521685439965</v>
       </c>
       <c r="AI4" t="n">
-        <v>10.97368421052632</v>
+        <v>10.10371538281037</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.421052631578948</v>
+        <v>4.989921627206537</v>
       </c>
       <c r="AK4" t="n">
-        <v>21.32280191738086</v>
+        <v>19.65506899475669</v>
       </c>
       <c r="AL4" t="n">
-        <v>19.97368421052632</v>
+        <v>18.37404928490325</v>
       </c>
       <c r="AM4" t="n">
-        <v>9.026315789473685</v>
+        <v>8.297084507028288</v>
       </c>
       <c r="AN4" t="n">
-        <v>30.7358708484498</v>
+        <v>28.30829517525587</v>
       </c>
     </row>
     <row r="5">
@@ -1014,121 +1014,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.52631578947368</v>
+        <v>17.8605774925761</v>
       </c>
       <c r="C5" t="n">
-        <v>4.105263157894737</v>
+        <v>3.76551650841305</v>
       </c>
       <c r="D5" t="n">
-        <v>15.42105263157895</v>
+        <v>14.09506098416305</v>
       </c>
       <c r="E5" t="n">
-        <v>48.45156718719877</v>
+        <v>44.36828160627763</v>
       </c>
       <c r="F5" t="n">
-        <v>44.93953981106613</v>
+        <v>41.17080940203395</v>
       </c>
       <c r="G5" t="n">
-        <v>16.21052631578947</v>
+        <v>14.83393502398734</v>
       </c>
       <c r="H5" t="n">
-        <v>12.97368421052632</v>
+        <v>11.86438170919754</v>
       </c>
       <c r="I5" t="n">
-        <v>2.736842105263158</v>
+        <v>2.511348532140578</v>
       </c>
       <c r="J5" t="n">
-        <v>1.447368421052632</v>
+        <v>1.323010000479362</v>
       </c>
       <c r="K5" t="n">
-        <v>8.983998457682668</v>
+        <v>8.212039344162823</v>
       </c>
       <c r="L5" t="n">
-        <v>3.368421052631579</v>
+        <v>3.083040906807342</v>
       </c>
       <c r="M5" t="n">
-        <v>1.605263157894737</v>
+        <v>1.46680986170466</v>
       </c>
       <c r="N5" t="n">
-        <v>9.342432427221901</v>
+        <v>8.531712172856738</v>
       </c>
       <c r="O5" t="n">
-        <v>88.65789473684211</v>
+        <v>81.31058055075862</v>
       </c>
       <c r="P5" t="n">
-        <v>21.92105263157895</v>
+        <v>20.089045983324</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.73684210526316</v>
+        <v>61.22153456743462</v>
       </c>
       <c r="R5" t="n">
-        <v>67.59879255831888</v>
+        <v>61.97341069876638</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6423767110083</v>
+        <v>60.16462282370047</v>
       </c>
       <c r="T5" t="n">
-        <v>73.5</v>
+        <v>67.44513834778533</v>
       </c>
       <c r="U5" t="n">
-        <v>56.52631578947368</v>
+        <v>51.87327252371745</v>
       </c>
       <c r="V5" t="n">
-        <v>6.473684210526316</v>
+        <v>5.936851822843828</v>
       </c>
       <c r="W5" t="n">
-        <v>3.263157894736842</v>
+        <v>2.992255121770995</v>
       </c>
       <c r="X5" t="n">
-        <v>17.23639926739927</v>
+        <v>15.78836412931974</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.86842105263158</v>
+        <v>16.39311672876354</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>7.314206004593141</v>
       </c>
       <c r="AA5" t="n">
-        <v>28.33490861769809</v>
+        <v>25.8586329953945</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.3421052631579</v>
+        <v>115.721445699044</v>
       </c>
       <c r="AC5" t="n">
-        <v>36.63157894736842</v>
+        <v>33.52946055608368</v>
       </c>
       <c r="AD5" t="n">
-        <v>89.71052631578948</v>
+        <v>82.19198514296028</v>
       </c>
       <c r="AE5" t="n">
-        <v>64.01990717177559</v>
+        <v>58.72040143786406</v>
       </c>
       <c r="AF5" t="n">
-        <v>63.63269269327164</v>
+        <v>58.37236531261879</v>
       </c>
       <c r="AG5" t="n">
-        <v>83.10526315789474</v>
+        <v>76.13021056849205</v>
       </c>
       <c r="AH5" t="n">
-        <v>61.71052631578947</v>
+        <v>56.52968207690235</v>
       </c>
       <c r="AI5" t="n">
-        <v>10.52631578947368</v>
+        <v>9.63864323642666</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.105263157894737</v>
+        <v>4.677382602850532</v>
       </c>
       <c r="AK5" t="n">
-        <v>21.01290331598226</v>
+        <v>19.27971534470463</v>
       </c>
       <c r="AL5" t="n">
-        <v>21.68421052631579</v>
+        <v>19.86248050314585</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.289473684210526</v>
+        <v>8.510692232917743</v>
       </c>
       <c r="AN5" t="n">
-        <v>29.30679631771737</v>
+        <v>26.87328754377431</v>
       </c>
     </row>
     <row r="6">
@@ -1138,121 +1138,121 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.53846153846154</v>
+        <v>22.51034898606119</v>
       </c>
       <c r="C6" t="n">
-        <v>4.153846153846154</v>
+        <v>3.809330545171378</v>
       </c>
       <c r="D6" t="n">
-        <v>20.38461538461538</v>
+        <v>18.70101844088981</v>
       </c>
       <c r="E6" t="n">
-        <v>57.66794327040481</v>
+        <v>52.87900173883725</v>
       </c>
       <c r="F6" t="n">
-        <v>56.43114633230018</v>
+        <v>51.74393090281384</v>
       </c>
       <c r="G6" t="n">
-        <v>21.61538461538462</v>
+        <v>19.83794124681951</v>
       </c>
       <c r="H6" t="n">
-        <v>18.30769230769231</v>
+        <v>16.80368671394952</v>
       </c>
       <c r="I6" t="n">
-        <v>2.487179487179487</v>
+        <v>2.278544800323049</v>
       </c>
       <c r="J6" t="n">
-        <v>1.564102564102564</v>
+        <v>1.434635578335321</v>
       </c>
       <c r="K6" t="n">
-        <v>9.614921574152344</v>
+        <v>8.815084680228168</v>
       </c>
       <c r="L6" t="n">
-        <v>3.282051282051282</v>
+        <v>3.010210159807008</v>
       </c>
       <c r="M6" t="n">
-        <v>1.846153846153846</v>
+        <v>1.694707249071131</v>
       </c>
       <c r="N6" t="n">
-        <v>11.45251526251526</v>
+        <v>10.50731671795062</v>
       </c>
       <c r="O6" t="n">
-        <v>123.9487179487179</v>
+        <v>113.8601288456971</v>
       </c>
       <c r="P6" t="n">
-        <v>23.61538461538462</v>
+        <v>21.6952478516056</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.3333333333333</v>
+        <v>92.1648809940915</v>
       </c>
       <c r="R6" t="n">
-        <v>73.42135113177422</v>
+        <v>67.45311786159525</v>
       </c>
       <c r="S6" t="n">
-        <v>72.1907000563539</v>
+        <v>66.32070909901344</v>
       </c>
       <c r="T6" t="n">
-        <v>105.2051282051282</v>
+        <v>96.63709701407491</v>
       </c>
       <c r="U6" t="n">
-        <v>87.41025641025641</v>
+        <v>80.28543360661705</v>
       </c>
       <c r="V6" t="n">
-        <v>7.82051282051282</v>
+        <v>7.188742876188425</v>
       </c>
       <c r="W6" t="n">
-        <v>4.051282051282051</v>
+        <v>3.717985217017691</v>
       </c>
       <c r="X6" t="n">
-        <v>18.6591082464544</v>
+        <v>17.14292449128709</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.76923076923077</v>
+        <v>18.17544044914571</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.666666666666666</v>
+        <v>8.88520852954443</v>
       </c>
       <c r="AA6" t="n">
-        <v>30.49800380388842</v>
+        <v>28.06300349500462</v>
       </c>
       <c r="AB6" t="n">
-        <v>147.3846153846154</v>
+        <v>135.2834814663265</v>
       </c>
       <c r="AC6" t="n">
-        <v>35.71794871794872</v>
+        <v>32.81138503953775</v>
       </c>
       <c r="AD6" t="n">
-        <v>111.6666666666667</v>
+        <v>102.4720964267888</v>
       </c>
       <c r="AE6" t="n">
-        <v>71.4135125387433</v>
+        <v>65.59045839305857</v>
       </c>
       <c r="AF6" t="n">
-        <v>74.77236611251996</v>
+        <v>68.67364819100777</v>
       </c>
       <c r="AG6" t="n">
-        <v>98.74358974358974</v>
+        <v>90.60064375245085</v>
       </c>
       <c r="AH6" t="n">
-        <v>80.05128205128206</v>
+        <v>73.45262015263937</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.46153846153846</v>
+        <v>9.613339492012553</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.307692307692307</v>
+        <v>5.802029557269119</v>
       </c>
       <c r="AK6" t="n">
-        <v>26.3879085188316</v>
+        <v>24.26918550227828</v>
       </c>
       <c r="AL6" t="n">
-        <v>20.05128205128205</v>
+        <v>18.37527867424672</v>
       </c>
       <c r="AM6" t="n">
-        <v>10.38461538461539</v>
+        <v>9.518549566911286</v>
       </c>
       <c r="AN6" t="n">
-        <v>35.22519343477036</v>
+        <v>32.36513245430616</v>
       </c>
     </row>
     <row r="7">
@@ -1262,121 +1262,121 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.26315789473684</v>
+        <v>22.22358585458359</v>
       </c>
       <c r="C7" t="n">
-        <v>4.657894736842105</v>
+        <v>4.262600735190801</v>
       </c>
       <c r="D7" t="n">
-        <v>19.60526315789474</v>
+        <v>17.96098511939278</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5689567669173</v>
+        <v>53.72313096910882</v>
       </c>
       <c r="F7" t="n">
-        <v>53.62602540003856</v>
+        <v>49.20220621231407</v>
       </c>
       <c r="G7" t="n">
-        <v>20.57894736842105</v>
+        <v>18.84877888337448</v>
       </c>
       <c r="H7" t="n">
-        <v>16.81578947368421</v>
+        <v>15.40801307836353</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.285677537529562</v>
       </c>
       <c r="J7" t="n">
-        <v>1.236842105263158</v>
+        <v>1.137364175229978</v>
       </c>
       <c r="K7" t="n">
-        <v>7.459995662232504</v>
+        <v>6.877630793040789</v>
       </c>
       <c r="L7" t="n">
-        <v>3.921052631578947</v>
+        <v>3.585141603986472</v>
       </c>
       <c r="M7" t="n">
-        <v>1.947368421052632</v>
+        <v>1.78431073526103</v>
       </c>
       <c r="N7" t="n">
-        <v>10.46432065741276</v>
+        <v>9.594147621499665</v>
       </c>
       <c r="O7" t="n">
-        <v>104.5</v>
+        <v>95.90360515888933</v>
       </c>
       <c r="P7" t="n">
-        <v>22.86842105263158</v>
+        <v>21.01615259606042</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.63157894736842</v>
+        <v>74.88745256282893</v>
       </c>
       <c r="R7" t="n">
-        <v>73.60863220551379</v>
+        <v>67.51771192725317</v>
       </c>
       <c r="S7" t="n">
-        <v>74.55462550607288</v>
+        <v>68.39189223197576</v>
       </c>
       <c r="T7" t="n">
-        <v>87.31578947368421</v>
+        <v>80.11907596929811</v>
       </c>
       <c r="U7" t="n">
-        <v>69.76315789473684</v>
+        <v>63.98713124430705</v>
       </c>
       <c r="V7" t="n">
-        <v>7.289473684210527</v>
+        <v>6.706271511862706</v>
       </c>
       <c r="W7" t="n">
-        <v>3.552631578947369</v>
+        <v>3.264995292335014</v>
       </c>
       <c r="X7" t="n">
-        <v>18.24156940427993</v>
+        <v>16.75138522666518</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>17.91701620444757</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.736842105263158</v>
+        <v>8.936340389863384</v>
       </c>
       <c r="AA7" t="n">
-        <v>32.62867452284557</v>
+        <v>29.91507096513805</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.8947368421053</v>
+        <v>121.9433318570224</v>
       </c>
       <c r="AC7" t="n">
-        <v>35.63157894736842</v>
+        <v>32.7301205056729</v>
       </c>
       <c r="AD7" t="n">
-        <v>97.26315789473684</v>
+        <v>89.2132113513495</v>
       </c>
       <c r="AE7" t="n">
-        <v>70.08603373819163</v>
+        <v>64.27156151147123</v>
       </c>
       <c r="AF7" t="n">
-        <v>70.62633680354733</v>
+        <v>64.73471048282605</v>
       </c>
       <c r="AG7" t="n">
-        <v>87.47368421052632</v>
+        <v>80.27285129396546</v>
       </c>
       <c r="AH7" t="n">
-        <v>66.71052631578948</v>
+        <v>61.1923676781804</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.736842105263158</v>
+        <v>8.933178159954242</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.815789473684211</v>
+        <v>4.417030530504687</v>
       </c>
       <c r="AK7" t="n">
-        <v>21.16368758434548</v>
+        <v>19.41424656231331</v>
       </c>
       <c r="AL7" t="n">
-        <v>19.26315789473684</v>
+        <v>17.68964561754855</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.868421052631579</v>
+        <v>8.133301580610619</v>
       </c>
       <c r="AN7" t="n">
-        <v>29.6993828320802</v>
+        <v>27.22147512044422</v>
       </c>
     </row>
     <row r="8">
@@ -1386,121 +1386,121 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.30555555555556</v>
+        <v>15.90309388547742</v>
       </c>
       <c r="C8" t="n">
-        <v>3.888888888888889</v>
+        <v>3.586814647084919</v>
       </c>
       <c r="D8" t="n">
-        <v>13.41666666666667</v>
+        <v>12.3162792383925</v>
       </c>
       <c r="E8" t="n">
-        <v>46.29504965404966</v>
+        <v>42.55690087530948</v>
       </c>
       <c r="F8" t="n">
-        <v>42.6116333943834</v>
+        <v>39.16043443557</v>
       </c>
       <c r="G8" t="n">
-        <v>14.44444444444444</v>
+        <v>13.27282652007135</v>
       </c>
       <c r="H8" t="n">
-        <v>11.55555555555556</v>
+        <v>10.60581366560592</v>
       </c>
       <c r="I8" t="n">
-        <v>1.972222222222222</v>
+        <v>1.818237627027435</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.7920268825333289</v>
       </c>
       <c r="K8" t="n">
-        <v>4.256878917378917</v>
+        <v>3.915117119233172</v>
       </c>
       <c r="L8" t="n">
-        <v>3.472222222222222</v>
+        <v>3.197844749438186</v>
       </c>
       <c r="M8" t="n">
-        <v>1.694444444444444</v>
+        <v>1.55600762592407</v>
       </c>
       <c r="N8" t="n">
-        <v>9.07376048026048</v>
+        <v>8.322947611612603</v>
       </c>
       <c r="O8" t="n">
-        <v>93.05555555555556</v>
+        <v>85.54179464910992</v>
       </c>
       <c r="P8" t="n">
-        <v>22.83333333333333</v>
+        <v>20.99684978534399</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.22222222222223</v>
+        <v>64.54494486376592</v>
       </c>
       <c r="R8" t="n">
-        <v>67.8570725986976</v>
+        <v>62.44362380187509</v>
       </c>
       <c r="S8" t="n">
-        <v>67.13062606837607</v>
+        <v>61.76090671167188</v>
       </c>
       <c r="T8" t="n">
-        <v>78.02777777777777</v>
+        <v>71.72220022128391</v>
       </c>
       <c r="U8" t="n">
-        <v>60.08333333333334</v>
+        <v>55.22157204349897</v>
       </c>
       <c r="V8" t="n">
-        <v>6.333333333333333</v>
+        <v>5.808060737482149</v>
       </c>
       <c r="W8" t="n">
-        <v>3.361111111111111</v>
+        <v>3.079186849774927</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5289653032153</v>
+        <v>15.16519436791914</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.44444444444444</v>
+        <v>17.87327714863182</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.638888888888889</v>
+        <v>8.853751374002785</v>
       </c>
       <c r="AA8" t="n">
-        <v>30.13659238909239</v>
+        <v>27.7232128315683</v>
       </c>
       <c r="AB8" t="n">
-        <v>127.0555555555556</v>
+        <v>116.9012694430123</v>
       </c>
       <c r="AC8" t="n">
-        <v>37.11111111111111</v>
+        <v>34.14077745453565</v>
       </c>
       <c r="AD8" t="n">
-        <v>89.94444444444444</v>
+        <v>82.76049198847664</v>
       </c>
       <c r="AE8" t="n">
-        <v>66.77817699430199</v>
+        <v>61.44245612311155</v>
       </c>
       <c r="AF8" t="n">
-        <v>68.28274135124134</v>
+        <v>62.81579363312696</v>
       </c>
       <c r="AG8" t="n">
-        <v>85.75</v>
+        <v>78.8705596046749</v>
       </c>
       <c r="AH8" t="n">
-        <v>63.36111111111111</v>
+        <v>58.26314995010851</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.861111111111111</v>
+        <v>8.145014533660339</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.222222222222222</v>
+        <v>3.874385567234109</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.64444683557183</v>
+        <v>17.1455912154984</v>
       </c>
       <c r="AL8" t="n">
-        <v>21.69444444444444</v>
+        <v>19.9653911541939</v>
       </c>
       <c r="AM8" t="n">
-        <v>9.805555555555555</v>
+        <v>9.021558446119199</v>
       </c>
       <c r="AN8" t="n">
-        <v>29.61634198209198</v>
+        <v>27.27047483159643</v>
       </c>
     </row>
     <row r="9">
@@ -1510,121 +1510,121 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.47368421052632</v>
+        <v>19.61235849122226</v>
       </c>
       <c r="C9" t="n">
-        <v>4.5</v>
+        <v>4.110449697780276</v>
       </c>
       <c r="D9" t="n">
-        <v>16.97368421052632</v>
+        <v>15.50190879344198</v>
       </c>
       <c r="E9" t="n">
-        <v>50.91568489405331</v>
+        <v>46.50304717123961</v>
       </c>
       <c r="F9" t="n">
-        <v>48.32006306851044</v>
+        <v>44.13400640826328</v>
       </c>
       <c r="G9" t="n">
-        <v>17.84210526315789</v>
+        <v>16.29578288467158</v>
       </c>
       <c r="H9" t="n">
-        <v>14.55263157894737</v>
+        <v>13.29177299531603</v>
       </c>
       <c r="I9" t="n">
-        <v>2.210526315789474</v>
+        <v>2.03002837933187</v>
       </c>
       <c r="J9" t="n">
-        <v>1.236842105263158</v>
+        <v>1.131997946644064</v>
       </c>
       <c r="K9" t="n">
-        <v>8.243385693254115</v>
+        <v>7.546107153374786</v>
       </c>
       <c r="L9" t="n">
-        <v>3.263157894736842</v>
+        <v>2.981397394669479</v>
       </c>
       <c r="M9" t="n">
-        <v>1.789473684210526</v>
+        <v>1.637474013999116</v>
       </c>
       <c r="N9" t="n">
-        <v>10.26430337206653</v>
+        <v>9.396965826819834</v>
       </c>
       <c r="O9" t="n">
-        <v>100.1842105263158</v>
+        <v>91.71681729644065</v>
       </c>
       <c r="P9" t="n">
-        <v>24.73684210526316</v>
+        <v>22.59316764796663</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.44736842105263</v>
+        <v>69.12364964847403</v>
       </c>
       <c r="R9" t="n">
-        <v>67.53686404385088</v>
+        <v>61.92176111274343</v>
       </c>
       <c r="S9" t="n">
-        <v>66.70378354978355</v>
+        <v>61.1539712092469</v>
       </c>
       <c r="T9" t="n">
-        <v>81.97368421052632</v>
+        <v>75.02625249453962</v>
       </c>
       <c r="U9" t="n">
-        <v>63.18421052631579</v>
+        <v>57.87268911559156</v>
       </c>
       <c r="V9" t="n">
-        <v>6.763157894736842</v>
+        <v>6.210730236557634</v>
       </c>
       <c r="W9" t="n">
-        <v>3.368421052631579</v>
+        <v>3.11454782614296</v>
       </c>
       <c r="X9" t="n">
-        <v>18.32890541476068</v>
+        <v>16.96433202019415</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.44736842105263</v>
+        <v>17.79258098058425</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.763157894736842</v>
+        <v>8.945840075999271</v>
       </c>
       <c r="AA9" t="n">
-        <v>32.66679149359413</v>
+        <v>30.02425965284754</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.0263157894737</v>
+        <v>120.9096543110801</v>
       </c>
       <c r="AC9" t="n">
-        <v>39.39473684210526</v>
+        <v>36.0920561659143</v>
       </c>
       <c r="AD9" t="n">
-        <v>92.63157894736842</v>
+        <v>84.81759814516586</v>
       </c>
       <c r="AE9" t="n">
-        <v>65.82828402737614</v>
+        <v>60.37452482442452</v>
       </c>
       <c r="AF9" t="n">
-        <v>66.86509995706049</v>
+        <v>61.30245753876263</v>
       </c>
       <c r="AG9" t="n">
-        <v>85.39473684210526</v>
+        <v>78.20754231631825</v>
       </c>
       <c r="AH9" t="n">
-        <v>63.68421052631579</v>
+        <v>58.28679135390193</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.973684210526315</v>
+        <v>9.169640528798581</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.447368421052632</v>
+        <v>4.079469183403932</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.29953021978022</v>
+        <v>17.76774944776998</v>
       </c>
       <c r="AL9" t="n">
-        <v>21.42105263157895</v>
+        <v>19.67251997737964</v>
       </c>
       <c r="AM9" t="n">
-        <v>9.421052631578947</v>
+        <v>8.647405768244031</v>
       </c>
       <c r="AN9" t="n">
-        <v>30.35695350263771</v>
+        <v>27.95527594682432</v>
       </c>
     </row>
     <row r="10">
@@ -1634,121 +1634,121 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.89473684210526</v>
+        <v>21.06385710086201</v>
       </c>
       <c r="C10" t="n">
-        <v>5.421052631578948</v>
+        <v>4.978570830286243</v>
       </c>
       <c r="D10" t="n">
-        <v>17.47368421052632</v>
+        <v>16.08528627057576</v>
       </c>
       <c r="E10" t="n">
-        <v>49.56372373240794</v>
+        <v>45.65427472962379</v>
       </c>
       <c r="F10" t="n">
-        <v>45.97881048775785</v>
+        <v>42.36694588284668</v>
       </c>
       <c r="G10" t="n">
-        <v>18.65789473684211</v>
+        <v>17.1805824943249</v>
       </c>
       <c r="H10" t="n">
-        <v>14.47368421052632</v>
+        <v>13.34074672008827</v>
       </c>
       <c r="I10" t="n">
-        <v>2.763157894736842</v>
+        <v>2.530296771722791</v>
       </c>
       <c r="J10" t="n">
-        <v>1.657894736842105</v>
+        <v>1.519382362112671</v>
       </c>
       <c r="K10" t="n">
-        <v>9.952284557547715</v>
+        <v>9.133438229581412</v>
       </c>
       <c r="L10" t="n">
-        <v>4.421052631578948</v>
+        <v>4.05566687084303</v>
       </c>
       <c r="M10" t="n">
-        <v>2.368421052631579</v>
+        <v>2.176649273793562</v>
       </c>
       <c r="N10" t="n">
-        <v>13.28739145941778</v>
+        <v>12.22033524096112</v>
       </c>
       <c r="O10" t="n">
-        <v>97.47368421052632</v>
+        <v>89.6830264686309</v>
       </c>
       <c r="P10" t="n">
-        <v>23.57894736842105</v>
+        <v>21.69341715115025</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.89473684210526</v>
+        <v>67.98960931748064</v>
       </c>
       <c r="R10" t="n">
-        <v>68.64777665317139</v>
+        <v>63.07014978264701</v>
       </c>
       <c r="S10" t="n">
-        <v>69.04191536533642</v>
+        <v>63.4461416198045</v>
       </c>
       <c r="T10" t="n">
-        <v>79.42105263157895</v>
+        <v>73.08073679006738</v>
       </c>
       <c r="U10" t="n">
-        <v>62.05263157894737</v>
+        <v>57.09937128371598</v>
       </c>
       <c r="V10" t="n">
-        <v>8.5</v>
+        <v>7.825262055526816</v>
       </c>
       <c r="W10" t="n">
-        <v>4.605263157894737</v>
+        <v>4.234255617531347</v>
       </c>
       <c r="X10" t="n">
-        <v>21.17582485058801</v>
+        <v>19.40650061270864</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.68421052631579</v>
+        <v>18.10816188367631</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.447368421052632</v>
+        <v>8.679070855218793</v>
       </c>
       <c r="AA10" t="n">
-        <v>32.57272517833044</v>
+        <v>29.88910127495821</v>
       </c>
       <c r="AB10" t="n">
-        <v>141.4473684210526</v>
+        <v>129.854058224543</v>
       </c>
       <c r="AC10" t="n">
-        <v>39.36842105263158</v>
+        <v>36.13377110257491</v>
       </c>
       <c r="AD10" t="n">
-        <v>102.0789473684211</v>
+        <v>93.72028712196811</v>
       </c>
       <c r="AE10" t="n">
-        <v>68.47034412955466</v>
+        <v>62.93959719784158</v>
       </c>
       <c r="AF10" t="n">
-        <v>69.19533911702332</v>
+        <v>63.57294902724117</v>
       </c>
       <c r="AG10" t="n">
-        <v>92.21052631578948</v>
+        <v>84.64558798710146</v>
       </c>
       <c r="AH10" t="n">
-        <v>69.5</v>
+        <v>63.79945745412269</v>
       </c>
       <c r="AI10" t="n">
-        <v>11.07894736842105</v>
+        <v>10.15048953285467</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.684210526315789</v>
+        <v>5.213249110965721</v>
       </c>
       <c r="AK10" t="n">
-        <v>24.32938374783112</v>
+        <v>22.35693508496636</v>
       </c>
       <c r="AL10" t="n">
-        <v>22.68421052631579</v>
+        <v>20.82773752099796</v>
       </c>
       <c r="AM10" t="n">
-        <v>10.13157894736842</v>
+        <v>9.31180122976167</v>
       </c>
       <c r="AN10" t="n">
-        <v>32.48738124156545</v>
+        <v>29.86836249266247</v>
       </c>
     </row>
     <row r="11">
@@ -1758,121 +1758,121 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.62162162162162</v>
+        <v>17.0208928353631</v>
       </c>
       <c r="C11" t="n">
-        <v>3.945945945945946</v>
+        <v>3.609879537721341</v>
       </c>
       <c r="D11" t="n">
-        <v>14.67567567567568</v>
+        <v>13.41101329764176</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97092941292942</v>
+        <v>42.9428707914811</v>
       </c>
       <c r="F11" t="n">
-        <v>43.30131313731314</v>
+        <v>39.60022738410705</v>
       </c>
       <c r="G11" t="n">
-        <v>15.7027027027027</v>
+        <v>14.34883772711724</v>
       </c>
       <c r="H11" t="n">
-        <v>12.64864864864865</v>
+        <v>11.55929826301626</v>
       </c>
       <c r="I11" t="n">
-        <v>2.378378378378379</v>
+        <v>2.165003666792002</v>
       </c>
       <c r="J11" t="n">
-        <v>1.297297297297297</v>
+        <v>1.182395760067346</v>
       </c>
       <c r="K11" t="n">
-        <v>7.055743985743987</v>
+        <v>6.43189088705557</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2.733772043481649</v>
       </c>
       <c r="M11" t="n">
-        <v>1.432432432432432</v>
+        <v>1.304693294636024</v>
       </c>
       <c r="N11" t="n">
-        <v>7.873319374319374</v>
+        <v>7.17547371297274</v>
       </c>
       <c r="O11" t="n">
-        <v>104.972972972973</v>
+        <v>95.94085127175317</v>
       </c>
       <c r="P11" t="n">
-        <v>22.05405405405405</v>
+        <v>20.16236012040019</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.91891891891892</v>
+        <v>75.77849115135298</v>
       </c>
       <c r="R11" t="n">
-        <v>74.81590456390455</v>
+        <v>68.34417862337921</v>
       </c>
       <c r="S11" t="n">
-        <v>74.00591990891991</v>
+        <v>67.61730661810685</v>
       </c>
       <c r="T11" t="n">
-        <v>87.97297297297297</v>
+        <v>80.38900583847142</v>
       </c>
       <c r="U11" t="n">
-        <v>70.78378378378379</v>
+        <v>64.68359190743188</v>
       </c>
       <c r="V11" t="n">
-        <v>7.72972972972973</v>
+        <v>7.056107227253521</v>
       </c>
       <c r="W11" t="n">
-        <v>3.972972972972973</v>
+        <v>3.628061660807865</v>
       </c>
       <c r="X11" t="n">
-        <v>18.2178221958222</v>
+        <v>16.64588403519532</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.97297297297297</v>
+        <v>16.40898170444014</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.27027027027027</v>
+        <v>8.454249044065184</v>
       </c>
       <c r="AA11" t="n">
-        <v>32.77119928719929</v>
+        <v>29.86479660266691</v>
       </c>
       <c r="AB11" t="n">
-        <v>137</v>
+        <v>125.3123256569588</v>
       </c>
       <c r="AC11" t="n">
-        <v>36.10810810810811</v>
+        <v>33.01023027573588</v>
       </c>
       <c r="AD11" t="n">
-        <v>100.8918918918919</v>
+        <v>92.30209538122288</v>
       </c>
       <c r="AE11" t="n">
-        <v>70.12964983664983</v>
+        <v>64.07775580663034</v>
       </c>
       <c r="AF11" t="n">
-        <v>71.67747757647757</v>
+        <v>65.53371369529773</v>
       </c>
       <c r="AG11" t="n">
-        <v>94.67567567567568</v>
+        <v>86.61250823753537</v>
       </c>
       <c r="AH11" t="n">
-        <v>73.27027027027027</v>
+        <v>67.05146773420665</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.756756756756756</v>
+        <v>8.922287093018758</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.216216216216216</v>
+        <v>4.765974697147812</v>
       </c>
       <c r="AK11" t="n">
-        <v>21.7554948024948</v>
+        <v>19.87804535087741</v>
       </c>
       <c r="AL11" t="n">
-        <v>20.10810810810811</v>
+        <v>18.37779033569011</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.378378378378379</v>
+        <v>8.571766586233728</v>
       </c>
       <c r="AN11" t="n">
-        <v>32.78626225126225</v>
+        <v>30.01811389996516</v>
       </c>
     </row>
     <row r="12">
@@ -1882,121 +1882,121 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.83783783783784</v>
+        <v>20.13275839439855</v>
       </c>
       <c r="C12" t="n">
-        <v>4.324324324324325</v>
+        <v>3.992007745376716</v>
       </c>
       <c r="D12" t="n">
-        <v>17.51351351351351</v>
+        <v>16.14075064902183</v>
       </c>
       <c r="E12" t="n">
-        <v>56.64923891198891</v>
+        <v>52.27647705029906</v>
       </c>
       <c r="F12" t="n">
-        <v>53.28707215869716</v>
+        <v>49.15553745865068</v>
       </c>
       <c r="G12" t="n">
-        <v>18.37837837837838</v>
+        <v>16.94371221150102</v>
       </c>
       <c r="H12" t="n">
-        <v>15.27027027027027</v>
+        <v>14.07412367671509</v>
       </c>
       <c r="I12" t="n">
-        <v>2.297297297297297</v>
+        <v>2.122838595671481</v>
       </c>
       <c r="J12" t="n">
-        <v>1.351351351351351</v>
+        <v>1.251580715244059</v>
       </c>
       <c r="K12" t="n">
-        <v>7.484413919413919</v>
+        <v>6.93715752388676</v>
       </c>
       <c r="L12" t="n">
-        <v>3.27027027027027</v>
+        <v>3.024202785757915</v>
       </c>
       <c r="M12" t="n">
-        <v>1.756756756756757</v>
+        <v>1.625300333905728</v>
       </c>
       <c r="N12" t="n">
-        <v>11.04767498267498</v>
+        <v>10.21030370120768</v>
       </c>
       <c r="O12" t="n">
-        <v>116.027027027027</v>
+        <v>107.1063097636692</v>
       </c>
       <c r="P12" t="n">
-        <v>25.54054054054054</v>
+        <v>23.57308190408416</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.48648648648648</v>
+        <v>83.53322785958507</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24854308979309</v>
+        <v>67.51663591064754</v>
       </c>
       <c r="S12" t="n">
-        <v>73.4489554004554</v>
+        <v>67.69663745692039</v>
       </c>
       <c r="T12" t="n">
-        <v>96.70270270270271</v>
+        <v>89.25452639394823</v>
       </c>
       <c r="U12" t="n">
-        <v>78</v>
+        <v>71.99250914033279</v>
       </c>
       <c r="V12" t="n">
-        <v>7.27027027027027</v>
+        <v>6.709363317736602</v>
       </c>
       <c r="W12" t="n">
-        <v>3.648648648648649</v>
+        <v>3.3550446331641</v>
       </c>
       <c r="X12" t="n">
-        <v>18.49186768636769</v>
+        <v>17.01388334029313</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.05405405405405</v>
+        <v>17.58555368459594</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.243243243243244</v>
+        <v>8.533054260479023</v>
       </c>
       <c r="AA12" t="n">
-        <v>32.57165864765864</v>
+        <v>30.06793736135394</v>
       </c>
       <c r="AB12" t="n">
-        <v>137.3783783783784</v>
+        <v>126.7189324827747</v>
       </c>
       <c r="AC12" t="n">
-        <v>40</v>
+        <v>36.86266647129598</v>
       </c>
       <c r="AD12" t="n">
-        <v>97.37837837837837</v>
+        <v>89.85626601147878</v>
       </c>
       <c r="AE12" t="n">
-        <v>68.98440826403326</v>
+        <v>63.62727651959393</v>
       </c>
       <c r="AF12" t="n">
-        <v>72.35171391446391</v>
+        <v>66.74100787383543</v>
       </c>
       <c r="AG12" t="n">
-        <v>90.54054054054055</v>
+        <v>83.56263309876053</v>
       </c>
       <c r="AH12" t="n">
-        <v>69.37837837837837</v>
+        <v>64.05839799147303</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.2972972972973</v>
+        <v>9.490857518566722</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.297297297297297</v>
+        <v>4.889610995824274</v>
       </c>
       <c r="AK12" t="n">
-        <v>23.02510944460944</v>
+        <v>21.27479509116209</v>
       </c>
       <c r="AL12" t="n">
-        <v>21.08108108108108</v>
+        <v>19.43275497046224</v>
       </c>
       <c r="AM12" t="n">
-        <v>9.972972972972974</v>
+        <v>9.203272812731214</v>
       </c>
       <c r="AN12" t="n">
-        <v>35.12504113454114</v>
+        <v>32.42490839628574</v>
       </c>
     </row>
     <row r="13">
@@ -2006,121 +2006,121 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.7027027027027</v>
+        <v>24.4053109544749</v>
       </c>
       <c r="C13" t="n">
-        <v>4.756756756756757</v>
+        <v>4.340596774614617</v>
       </c>
       <c r="D13" t="n">
-        <v>21.94594594594595</v>
+        <v>20.06471417986028</v>
       </c>
       <c r="E13" t="n">
-        <v>58.17086037386037</v>
+        <v>53.14678951030839</v>
       </c>
       <c r="F13" t="n">
-        <v>55.32485972585972</v>
+        <v>50.57784849782107</v>
       </c>
       <c r="G13" t="n">
-        <v>23.37837837837838</v>
+        <v>21.36224793103679</v>
       </c>
       <c r="H13" t="n">
-        <v>19.54054054054054</v>
+        <v>17.86666724365256</v>
       </c>
       <c r="I13" t="n">
-        <v>2.837837837837838</v>
+        <v>2.578409050715873</v>
       </c>
       <c r="J13" t="n">
-        <v>1.459459459459459</v>
+        <v>1.325382578634775</v>
       </c>
       <c r="K13" t="n">
-        <v>8.871893871893873</v>
+        <v>8.060946793959577</v>
       </c>
       <c r="L13" t="n">
-        <v>3.594594594594595</v>
+        <v>3.267482718111548</v>
       </c>
       <c r="M13" t="n">
-        <v>1.459459459459459</v>
+        <v>1.32617605114183</v>
       </c>
       <c r="N13" t="n">
-        <v>8.460047025047025</v>
+        <v>7.691585172368653</v>
       </c>
       <c r="O13" t="n">
-        <v>117.7837837837838</v>
+        <v>107.5262315289011</v>
       </c>
       <c r="P13" t="n">
-        <v>21.43243243243243</v>
+        <v>19.54765754965999</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.35135135135135</v>
+        <v>87.97857397924113</v>
       </c>
       <c r="R13" t="n">
-        <v>74.24327083727083</v>
+        <v>67.83592982123415</v>
       </c>
       <c r="S13" t="n">
-        <v>75.12843572643573</v>
+        <v>68.64689163010782</v>
       </c>
       <c r="T13" t="n">
-        <v>100.2972972972973</v>
+        <v>91.59065287480868</v>
       </c>
       <c r="U13" t="n">
-        <v>84.24324324324324</v>
+        <v>76.93634519209978</v>
       </c>
       <c r="V13" t="n">
-        <v>8.513513513513514</v>
+        <v>7.781381619870578</v>
       </c>
       <c r="W13" t="n">
-        <v>4.405405405405405</v>
+        <v>4.01330631710305</v>
       </c>
       <c r="X13" t="n">
-        <v>20.70690860490861</v>
+        <v>18.90865397567672</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.72972972972973</v>
+        <v>14.34622741423436</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.594594594594595</v>
+        <v>6.913255624881678</v>
       </c>
       <c r="AA13" t="n">
-        <v>28.20424216324216</v>
+        <v>25.67136560734314</v>
       </c>
       <c r="AB13" t="n">
-        <v>148.2702702702703</v>
+        <v>135.3609535497827</v>
       </c>
       <c r="AC13" t="n">
-        <v>33.67567567567568</v>
+        <v>30.71203724013567</v>
       </c>
       <c r="AD13" t="n">
-        <v>114.5945945945946</v>
+        <v>104.6489163096471</v>
       </c>
       <c r="AE13" t="n">
-        <v>73.18292725292726</v>
+        <v>66.85710831866621</v>
       </c>
       <c r="AF13" t="n">
-        <v>74.85148303948304</v>
+        <v>68.3629216180415</v>
       </c>
       <c r="AG13" t="n">
-        <v>102.2432432432432</v>
+        <v>93.39746736221298</v>
       </c>
       <c r="AH13" t="n">
-        <v>84.4054054054054</v>
+        <v>77.12815869501762</v>
       </c>
       <c r="AI13" t="n">
-        <v>10.51351351351351</v>
+        <v>9.601316816199684</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5.945945945945946</v>
+        <v>5.434765673650782</v>
       </c>
       <c r="AK13" t="n">
-        <v>24.70754528354528</v>
+        <v>22.59032836611046</v>
       </c>
       <c r="AL13" t="n">
-        <v>16.67567567567568</v>
+        <v>15.20830733644102</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.054054054054054</v>
+        <v>7.343120046737932</v>
       </c>
       <c r="AN13" t="n">
-        <v>30.06359334359334</v>
+        <v>27.42010170248201</v>
       </c>
     </row>
     <row r="14">
@@ -2130,121 +2130,121 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.56756756756757</v>
+        <v>17.17130106136456</v>
       </c>
       <c r="C14" t="n">
-        <v>4.351351351351352</v>
+        <v>4.00699768989009</v>
       </c>
       <c r="D14" t="n">
-        <v>14.21621621621622</v>
+        <v>13.16430337147447</v>
       </c>
       <c r="E14" t="n">
-        <v>48.25602656802657</v>
+        <v>44.61949164454585</v>
       </c>
       <c r="F14" t="n">
-        <v>45.45388277488277</v>
+        <v>42.05881813672329</v>
       </c>
       <c r="G14" t="n">
-        <v>15.83783783783784</v>
+        <v>14.66968612974109</v>
       </c>
       <c r="H14" t="n">
-        <v>12.48648648648649</v>
+        <v>11.57341027707238</v>
       </c>
       <c r="I14" t="n">
-        <v>1.864864864864865</v>
+        <v>1.727076718381549</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.9209554756241094</v>
       </c>
       <c r="K14" t="n">
-        <v>7.322587322587323</v>
+        <v>6.748044875241979</v>
       </c>
       <c r="L14" t="n">
-        <v>3.378378378378379</v>
+        <v>3.126338732977705</v>
       </c>
       <c r="M14" t="n">
-        <v>1.648648648648649</v>
+        <v>1.526221623912754</v>
       </c>
       <c r="N14" t="n">
-        <v>10.02151695151695</v>
+        <v>9.281318488239021</v>
       </c>
       <c r="O14" t="n">
-        <v>95.24324324324324</v>
+        <v>87.85726144507096</v>
       </c>
       <c r="P14" t="n">
-        <v>23.97297297297297</v>
+        <v>22.09775592514763</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.27027027027027</v>
+        <v>65.75950551992334</v>
       </c>
       <c r="R14" t="n">
-        <v>68.699605997606</v>
+        <v>63.51345888714311</v>
       </c>
       <c r="S14" t="n">
-        <v>69.41407605907605</v>
+        <v>64.16133735488479</v>
       </c>
       <c r="T14" t="n">
-        <v>78.10810810810811</v>
+        <v>72.07795558970352</v>
       </c>
       <c r="U14" t="n">
-        <v>60.2972972972973</v>
+        <v>55.64781490060915</v>
       </c>
       <c r="V14" t="n">
-        <v>6.108108108108108</v>
+        <v>5.656372092164276</v>
       </c>
       <c r="W14" t="n">
-        <v>3.324324324324324</v>
+        <v>3.070852925844103</v>
       </c>
       <c r="X14" t="n">
-        <v>17.44392844992845</v>
+        <v>16.10765047037863</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.48648648648649</v>
+        <v>17.05498222094052</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.594594594594595</v>
+        <v>7.927807219114793</v>
       </c>
       <c r="AA14" t="n">
-        <v>33.02838748638749</v>
+        <v>30.50855872867531</v>
       </c>
       <c r="AB14" t="n">
-        <v>130.3783783783784</v>
+        <v>120.3896417158589</v>
       </c>
       <c r="AC14" t="n">
-        <v>39.81081081081081</v>
+        <v>36.79359290427394</v>
       </c>
       <c r="AD14" t="n">
-        <v>90.56756756756756</v>
+        <v>83.59604881158498</v>
       </c>
       <c r="AE14" t="n">
-        <v>65.0196173016173</v>
+        <v>60.00338296768425</v>
       </c>
       <c r="AF14" t="n">
-        <v>66.58802702702702</v>
+        <v>61.47672864134758</v>
       </c>
       <c r="AG14" t="n">
-        <v>86.21621621621621</v>
+        <v>79.60655721922993</v>
       </c>
       <c r="AH14" t="n">
-        <v>63.54054054054054</v>
+        <v>58.65827848139709</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.243243243243244</v>
+        <v>7.618896555408581</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.135135135135135</v>
+        <v>3.829575112890538</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.8147000027</v>
+        <v>18.35091538105392</v>
       </c>
       <c r="AL14" t="n">
-        <v>22.54054054054054</v>
+        <v>20.79792983794118</v>
       </c>
       <c r="AM14" t="n">
-        <v>10.56756756756757</v>
+        <v>9.74609971088778</v>
       </c>
       <c r="AN14" t="n">
-        <v>34.75609524709525</v>
+        <v>32.08760984591716</v>
       </c>
     </row>
     <row r="15">
@@ -2254,121 +2254,121 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.39473684210526</v>
+        <v>15.0903415185088</v>
       </c>
       <c r="C15" t="n">
-        <v>5.342105263157895</v>
+        <v>4.919730357935958</v>
       </c>
       <c r="D15" t="n">
-        <v>11.05263157894737</v>
+        <v>10.17061116057284</v>
       </c>
       <c r="E15" t="n">
-        <v>38.02694197031039</v>
+        <v>34.94103122000642</v>
       </c>
       <c r="F15" t="n">
-        <v>34.66395180258338</v>
+        <v>31.85565092840364</v>
       </c>
       <c r="G15" t="n">
-        <v>13.02631578947368</v>
+        <v>11.99711956248855</v>
       </c>
       <c r="H15" t="n">
-        <v>9.026315789473685</v>
+        <v>8.309592396820982</v>
       </c>
       <c r="I15" t="n">
-        <v>2.368421052631579</v>
+        <v>2.179698748675738</v>
       </c>
       <c r="J15" t="n">
-        <v>1.105263157894737</v>
+        <v>1.015882618605607</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2791661846925</v>
+        <v>5.780104856135067</v>
       </c>
       <c r="L15" t="n">
-        <v>3.921052631578947</v>
+        <v>3.61198472664347</v>
       </c>
       <c r="M15" t="n">
-        <v>1.684210526315789</v>
+        <v>1.551932006941591</v>
       </c>
       <c r="N15" t="n">
-        <v>8.663634181607867</v>
+        <v>7.972125220879183</v>
       </c>
       <c r="O15" t="n">
-        <v>87.18421052631579</v>
+        <v>80.0968719601268</v>
       </c>
       <c r="P15" t="n">
-        <v>24.68421052631579</v>
+        <v>22.67774298073753</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.5</v>
+        <v>57.41912897938928</v>
       </c>
       <c r="R15" t="n">
-        <v>64.25314372469636</v>
+        <v>58.99554369833887</v>
       </c>
       <c r="S15" t="n">
-        <v>63.6277688451899</v>
+        <v>58.42356704351844</v>
       </c>
       <c r="T15" t="n">
-        <v>70.39473684210526</v>
+        <v>64.67815926678404</v>
       </c>
       <c r="U15" t="n">
-        <v>51.97368421052632</v>
+        <v>47.75615730667351</v>
       </c>
       <c r="V15" t="n">
-        <v>7.342105263157895</v>
+        <v>6.739100585094565</v>
       </c>
       <c r="W15" t="n">
-        <v>3.552631578947369</v>
+        <v>3.256746811266281</v>
       </c>
       <c r="X15" t="n">
-        <v>17.26544081357239</v>
+        <v>15.81887762164292</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.57894736842105</v>
+        <v>17.05812571203629</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.684210526315789</v>
+        <v>7.974786339822646</v>
       </c>
       <c r="AA15" t="n">
-        <v>28.38817418546366</v>
+        <v>26.0496802589258</v>
       </c>
       <c r="AB15" t="n">
-        <v>127.7631578947368</v>
+        <v>117.4981077499128</v>
       </c>
       <c r="AC15" t="n">
-        <v>41.81578947368421</v>
+        <v>38.42727754238924</v>
       </c>
       <c r="AD15" t="n">
-        <v>85.94736842105263</v>
+        <v>79.07083020752353</v>
       </c>
       <c r="AE15" t="n">
-        <v>63.56182060921535</v>
+        <v>58.42119873135636</v>
       </c>
       <c r="AF15" t="n">
-        <v>63.45854000385579</v>
+        <v>58.33117335911105</v>
       </c>
       <c r="AG15" t="n">
-        <v>82.36842105263158</v>
+        <v>75.7589486335914</v>
       </c>
       <c r="AH15" t="n">
-        <v>58.18421052631579</v>
+        <v>53.52864686206652</v>
       </c>
       <c r="AI15" t="n">
-        <v>10.73684210526316</v>
+        <v>9.850660800393097</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.026315789473684</v>
+        <v>4.612003492313015</v>
       </c>
       <c r="AK15" t="n">
-        <v>20.34295373048005</v>
+        <v>18.66283282247632</v>
       </c>
       <c r="AL15" t="n">
-        <v>23.47368421052632</v>
+        <v>21.55051489425237</v>
       </c>
       <c r="AM15" t="n">
-        <v>10.3421052631579</v>
+        <v>9.487745475288108</v>
       </c>
       <c r="AN15" t="n">
-        <v>32.5110586080586</v>
+        <v>29.80941838682743</v>
       </c>
     </row>
     <row r="16">
@@ -2378,121 +2378,121 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.92105263157895</v>
+        <v>18.29624620943179</v>
       </c>
       <c r="C16" t="n">
-        <v>4.289473684210527</v>
+        <v>3.944889518891827</v>
       </c>
       <c r="D16" t="n">
-        <v>15.63157894736842</v>
+        <v>14.35135669053996</v>
       </c>
       <c r="E16" t="n">
-        <v>51.13020206985996</v>
+        <v>46.93180213045736</v>
       </c>
       <c r="F16" t="n">
-        <v>47.87891990903833</v>
+        <v>43.95054435128689</v>
       </c>
       <c r="G16" t="n">
-        <v>17.02631578947368</v>
+        <v>15.63961497278666</v>
       </c>
       <c r="H16" t="n">
-        <v>13.68421052631579</v>
+        <v>12.56199411580825</v>
       </c>
       <c r="I16" t="n">
-        <v>1.526315789473684</v>
+        <v>1.410419293421</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.729910145248307</v>
       </c>
       <c r="K16" t="n">
-        <v>5.567283593599384</v>
+        <v>5.149770587388609</v>
       </c>
       <c r="L16" t="n">
-        <v>3.763157894736842</v>
+        <v>3.451072119843314</v>
       </c>
       <c r="M16" t="n">
-        <v>1.868421052631579</v>
+        <v>1.711067272477</v>
       </c>
       <c r="N16" t="n">
-        <v>11.31949817726134</v>
+        <v>10.39008040636614</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4473684210526</v>
+        <v>95.1747110608331</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5</v>
+        <v>21.57932798198168</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.94736842105263</v>
+        <v>73.59538307885141</v>
       </c>
       <c r="R16" t="n">
-        <v>70.75523763517184</v>
+        <v>65.17018123438511</v>
       </c>
       <c r="S16" t="n">
-        <v>70.64537030951504</v>
+        <v>65.06399016311153</v>
       </c>
       <c r="T16" t="n">
-        <v>86.57894736842105</v>
+        <v>79.69340764444877</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73684210526316</v>
+        <v>63.30457198062022</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>4.576360471936334</v>
       </c>
       <c r="W16" t="n">
-        <v>2.368421052631579</v>
+        <v>2.164787592259651</v>
       </c>
       <c r="X16" t="n">
-        <v>13.25536808367072</v>
+        <v>12.11857449498212</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.65789473684211</v>
+        <v>18.03658763968296</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.10526315789474</v>
+        <v>9.270697872223591</v>
       </c>
       <c r="AA16" t="n">
-        <v>32.6263954729481</v>
+        <v>29.99766360945509</v>
       </c>
       <c r="AB16" t="n">
-        <v>124.6842105263158</v>
+        <v>114.7203877108655</v>
       </c>
       <c r="AC16" t="n">
-        <v>33.6578947368421</v>
+        <v>30.88864139558614</v>
       </c>
       <c r="AD16" t="n">
-        <v>91.02631578947368</v>
+        <v>83.83174631527933</v>
       </c>
       <c r="AE16" t="n">
-        <v>69.2900868648895</v>
+        <v>63.81794106288595</v>
       </c>
       <c r="AF16" t="n">
-        <v>72.90134104053841</v>
+        <v>67.13787944314396</v>
       </c>
       <c r="AG16" t="n">
-        <v>84.89473684210526</v>
+        <v>78.11545797679167</v>
       </c>
       <c r="AH16" t="n">
-        <v>65.65789473684211</v>
+        <v>60.47643402903518</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.421052631578948</v>
+        <v>5.874420561207423</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.947368421052631</v>
+        <v>2.697585580340602</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.53563603063603</v>
+        <v>14.2514256866458</v>
       </c>
       <c r="AL16" t="n">
-        <v>19.65789473684211</v>
+        <v>18.03491543179571</v>
       </c>
       <c r="AM16" t="n">
-        <v>9.421052631578947</v>
+        <v>8.664515940195871</v>
       </c>
       <c r="AN16" t="n">
-        <v>31.68766941391941</v>
+        <v>29.21775268588714</v>
       </c>
     </row>
     <row r="17">
@@ -2502,121 +2502,121 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.84210526315789</v>
+        <v>17.27381465869694</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3.656606355966616</v>
       </c>
       <c r="D17" t="n">
-        <v>14.8421052631579</v>
+        <v>13.61720830273032</v>
       </c>
       <c r="E17" t="n">
-        <v>47.53186620397147</v>
+        <v>43.61644309430395</v>
       </c>
       <c r="F17" t="n">
-        <v>43.30531535569693</v>
+        <v>39.71914713217032</v>
       </c>
       <c r="G17" t="n">
-        <v>15.78947368421053</v>
+        <v>14.47074219170894</v>
       </c>
       <c r="H17" t="n">
-        <v>12.55263157894737</v>
+        <v>11.51041358499007</v>
       </c>
       <c r="I17" t="n">
-        <v>1.789473684210526</v>
+        <v>1.636298453231073</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7223807815730495</v>
       </c>
       <c r="K17" t="n">
-        <v>4.945698476961636</v>
+        <v>4.522316209908876</v>
       </c>
       <c r="L17" t="n">
-        <v>3.078947368421053</v>
+        <v>2.809785671274389</v>
       </c>
       <c r="M17" t="n">
-        <v>1.394736842105263</v>
+        <v>1.271948973242301</v>
       </c>
       <c r="N17" t="n">
-        <v>7.700026026604974</v>
+        <v>7.023128530731448</v>
       </c>
       <c r="O17" t="n">
-        <v>109.3157894736842</v>
+        <v>100.3027838258822</v>
       </c>
       <c r="P17" t="n">
-        <v>23.76315789473684</v>
+        <v>21.81499260234416</v>
       </c>
       <c r="Q17" t="n">
-        <v>85.55263157894737</v>
+        <v>78.48779122353804</v>
       </c>
       <c r="R17" t="n">
-        <v>70.40064261615578</v>
+        <v>64.57665174582662</v>
       </c>
       <c r="S17" t="n">
-        <v>70.69090476190476</v>
+        <v>64.85424860784291</v>
       </c>
       <c r="T17" t="n">
-        <v>92.05263157894737</v>
+        <v>84.45518333772598</v>
       </c>
       <c r="U17" t="n">
-        <v>73.81578947368421</v>
+        <v>67.73003811442049</v>
       </c>
       <c r="V17" t="n">
-        <v>6.763157894736842</v>
+        <v>6.191365407501157</v>
       </c>
       <c r="W17" t="n">
-        <v>3.526315789473684</v>
+        <v>3.227965357762221</v>
       </c>
       <c r="X17" t="n">
-        <v>16.58732003084635</v>
+        <v>15.19535612826327</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.81578947368421</v>
+        <v>17.25609049134931</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.526315789473685</v>
+        <v>8.734122811406289</v>
       </c>
       <c r="AA17" t="n">
-        <v>32.42712439753229</v>
+        <v>29.71277331237606</v>
       </c>
       <c r="AB17" t="n">
-        <v>132.4473684210526</v>
+        <v>121.4690737718036</v>
       </c>
       <c r="AC17" t="n">
-        <v>36.1578947368421</v>
+        <v>33.15219921068176</v>
       </c>
       <c r="AD17" t="n">
-        <v>96.28947368421052</v>
+        <v>88.31687456112184</v>
       </c>
       <c r="AE17" t="n">
-        <v>67.71389574898785</v>
+        <v>62.12137645291706</v>
       </c>
       <c r="AF17" t="n">
-        <v>68.98424045691151</v>
+        <v>63.30866381310585</v>
       </c>
       <c r="AG17" t="n">
-        <v>88.52631578947368</v>
+        <v>81.21067324091797</v>
       </c>
       <c r="AH17" t="n">
-        <v>67.97368421052632</v>
+        <v>62.36051001027111</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.026315789473685</v>
+        <v>8.268881749728301</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.210526315789473</v>
+        <v>3.859851313369288</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.05241912473491</v>
+        <v>17.45243898487889</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.73684210526316</v>
+        <v>18.09384981681457</v>
       </c>
       <c r="AM17" t="n">
-        <v>8.578947368421053</v>
+        <v>7.861894958738605</v>
       </c>
       <c r="AN17" t="n">
-        <v>29.34413504916136</v>
+        <v>26.87943058574159</v>
       </c>
     </row>
     <row r="18">
@@ -2626,121 +2626,121 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.18918918918919</v>
+        <v>18.56576900528227</v>
       </c>
       <c r="C18" t="n">
-        <v>3.756756756756757</v>
+        <v>3.445235941680335</v>
       </c>
       <c r="D18" t="n">
-        <v>16.43243243243243</v>
+        <v>15.12053306360193</v>
       </c>
       <c r="E18" t="n">
-        <v>57.53549118449118</v>
+        <v>52.90766451175464</v>
       </c>
       <c r="F18" t="n">
-        <v>54.16007961407961</v>
+        <v>49.81712903261193</v>
       </c>
       <c r="G18" t="n">
-        <v>16.48648648648649</v>
+        <v>15.17151003836372</v>
       </c>
       <c r="H18" t="n">
-        <v>13.78378378378378</v>
+        <v>12.69057731659653</v>
       </c>
       <c r="I18" t="n">
-        <v>1.72972972972973</v>
+        <v>1.587351212230281</v>
       </c>
       <c r="J18" t="n">
-        <v>0.972972972972973</v>
+        <v>0.8901906220193933</v>
       </c>
       <c r="K18" t="n">
-        <v>6.736101736101736</v>
+        <v>6.160761243823659</v>
       </c>
       <c r="L18" t="n">
-        <v>2.621621621621621</v>
+        <v>2.41342584488841</v>
       </c>
       <c r="M18" t="n">
-        <v>1.27027027027027</v>
+        <v>1.171010686964805</v>
       </c>
       <c r="N18" t="n">
-        <v>8.284665784665785</v>
+        <v>7.636338701998722</v>
       </c>
       <c r="O18" t="n">
-        <v>110.9189189189189</v>
+        <v>102.0138281662882</v>
       </c>
       <c r="P18" t="n">
-        <v>21.91891891891892</v>
+        <v>20.12510906720354</v>
       </c>
       <c r="Q18" t="n">
-        <v>89</v>
+        <v>81.88871909908468</v>
       </c>
       <c r="R18" t="n">
-        <v>74.23137296937297</v>
+        <v>68.2775758500178</v>
       </c>
       <c r="S18" t="n">
-        <v>74.13599553149554</v>
+        <v>68.18587615194248</v>
       </c>
       <c r="T18" t="n">
-        <v>92.91891891891892</v>
+        <v>85.42036219053082</v>
       </c>
       <c r="U18" t="n">
-        <v>76.43243243243244</v>
+        <v>70.28891959120656</v>
       </c>
       <c r="V18" t="n">
-        <v>6.891891891891892</v>
+        <v>6.321324111901605</v>
       </c>
       <c r="W18" t="n">
-        <v>3.405405405405405</v>
+        <v>3.127787518823261</v>
       </c>
       <c r="X18" t="n">
-        <v>17.73106263106263</v>
+        <v>16.26696477782667</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.62162162162162</v>
+        <v>15.27447444728923</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.054054054054054</v>
+        <v>7.408730376422737</v>
       </c>
       <c r="AA18" t="n">
-        <v>30.38754287604288</v>
+        <v>27.94432112740102</v>
       </c>
       <c r="AB18" t="n">
-        <v>134.5135135135135</v>
+        <v>123.4330214664023</v>
       </c>
       <c r="AC18" t="n">
-        <v>35.78378378378378</v>
+        <v>32.81364753777635</v>
       </c>
       <c r="AD18" t="n">
-        <v>98.72972972972973</v>
+        <v>90.61937392862595</v>
       </c>
       <c r="AE18" t="n">
-        <v>70.1111875106875</v>
+        <v>64.41998189546388</v>
       </c>
       <c r="AF18" t="n">
-        <v>72.23148032598033</v>
+        <v>66.35370727718842</v>
       </c>
       <c r="AG18" t="n">
-        <v>85.94594594594595</v>
+        <v>78.90322900375897</v>
       </c>
       <c r="AH18" t="n">
-        <v>68.13513513513513</v>
+        <v>62.55650691200053</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.027027027027026</v>
+        <v>8.26359662618561</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.324324324324325</v>
+        <v>4.873185057885446</v>
       </c>
       <c r="AK18" t="n">
-        <v>24.14722452772453</v>
+        <v>22.10770353399107</v>
       </c>
       <c r="AL18" t="n">
-        <v>17.51351351351351</v>
+        <v>16.04747540004186</v>
       </c>
       <c r="AM18" t="n">
-        <v>8.486486486486486</v>
+        <v>7.759501885607236</v>
       </c>
       <c r="AN18" t="n">
-        <v>29.70644024444024</v>
+        <v>27.17759086067339</v>
       </c>
     </row>
     <row r="19">
@@ -2750,121 +2750,121 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.23684210526316</v>
+        <v>20.19991455806578</v>
       </c>
       <c r="C19" t="n">
-        <v>4.763157894736842</v>
+        <v>4.327364784554117</v>
       </c>
       <c r="D19" t="n">
-        <v>17.47368421052632</v>
+        <v>15.87254977351166</v>
       </c>
       <c r="E19" t="n">
-        <v>51.84978089454405</v>
+        <v>47.10982986563165</v>
       </c>
       <c r="F19" t="n">
-        <v>49.77764006169269</v>
+        <v>45.2251006970623</v>
       </c>
       <c r="G19" t="n">
-        <v>19.18421052631579</v>
+        <v>17.4332651281267</v>
       </c>
       <c r="H19" t="n">
-        <v>15.39473684210526</v>
+        <v>13.989605008252</v>
       </c>
       <c r="I19" t="n">
-        <v>2.710526315789474</v>
+        <v>2.463125234166986</v>
       </c>
       <c r="J19" t="n">
-        <v>1.657894736842105</v>
+        <v>1.502397313838887</v>
       </c>
       <c r="K19" t="n">
-        <v>10.15278581068055</v>
+        <v>9.195543905844644</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.641349319344223</v>
       </c>
       <c r="M19" t="n">
-        <v>2.263157894736842</v>
+        <v>2.057025306267798</v>
       </c>
       <c r="N19" t="n">
-        <v>13.51841141314826</v>
+        <v>12.27675402487855</v>
       </c>
       <c r="O19" t="n">
-        <v>98.26315789473684</v>
+        <v>89.35834068052354</v>
       </c>
       <c r="P19" t="n">
-        <v>23.18421052631579</v>
+        <v>21.0893520811537</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.07894736842105</v>
+        <v>68.26898859936983</v>
       </c>
       <c r="R19" t="n">
-        <v>71.52354241372663</v>
+        <v>65.02169977392987</v>
       </c>
       <c r="S19" t="n">
-        <v>71.13880769230769</v>
+        <v>64.69163318175958</v>
       </c>
       <c r="T19" t="n">
-        <v>81.18421052631579</v>
+        <v>73.83215099381252</v>
       </c>
       <c r="U19" t="n">
-        <v>63.6578947368421</v>
+        <v>57.90106084380782</v>
       </c>
       <c r="V19" t="n">
-        <v>6.5</v>
+        <v>5.897174739250802</v>
       </c>
       <c r="W19" t="n">
-        <v>3.578947368421053</v>
+        <v>3.245745579101099</v>
       </c>
       <c r="X19" t="n">
-        <v>18.07906304222094</v>
+        <v>16.39561842136474</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.36842105263158</v>
+        <v>17.5961696325996</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.13157894736842</v>
+        <v>9.207709926054767</v>
       </c>
       <c r="AA19" t="n">
-        <v>32.7931096491228</v>
+        <v>29.83604047114076</v>
       </c>
       <c r="AB19" t="n">
-        <v>137.7105263157895</v>
+        <v>125.1357282977149</v>
       </c>
       <c r="AC19" t="n">
-        <v>39.28947368421053</v>
+        <v>35.72407020829566</v>
       </c>
       <c r="AD19" t="n">
-        <v>98.42105263157895</v>
+        <v>89.41165808941928</v>
       </c>
       <c r="AE19" t="n">
-        <v>66.93313119336803</v>
+        <v>60.84844954567213</v>
       </c>
       <c r="AF19" t="n">
-        <v>68.81133945440524</v>
+        <v>62.55845422053151</v>
       </c>
       <c r="AG19" t="n">
-        <v>90.73684210526316</v>
+        <v>82.45941765103119</v>
       </c>
       <c r="AH19" t="n">
-        <v>68.42105263157895</v>
+        <v>62.17137967105673</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.736842105263158</v>
+        <v>8.835512004344546</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5.578947368421052</v>
+        <v>5.056222335865505</v>
       </c>
       <c r="AK19" t="n">
-        <v>24.77467890881049</v>
+        <v>22.49781529390821</v>
       </c>
       <c r="AL19" t="n">
-        <v>21.84210526315789</v>
+        <v>19.86313883187685</v>
       </c>
       <c r="AM19" t="n">
-        <v>10.3421052631579</v>
+        <v>9.395344861747457</v>
       </c>
       <c r="AN19" t="n">
-        <v>33.35093662039714</v>
+        <v>30.30011376497907</v>
       </c>
     </row>
     <row r="20">
@@ -2874,121 +2874,121 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.55263157894737</v>
+        <v>22.41825599356823</v>
       </c>
       <c r="C20" t="n">
-        <v>4.131578947368421</v>
+        <v>3.77039492850299</v>
       </c>
       <c r="D20" t="n">
-        <v>20.42105263157895</v>
+        <v>18.64786106506524</v>
       </c>
       <c r="E20" t="n">
-        <v>59.46088538654327</v>
+        <v>54.34400387761803</v>
       </c>
       <c r="F20" t="n">
-        <v>56.42740967804125</v>
+        <v>51.55774323594751</v>
       </c>
       <c r="G20" t="n">
-        <v>20.63157894736842</v>
+        <v>18.84925455177893</v>
       </c>
       <c r="H20" t="n">
-        <v>17.60526315789474</v>
+        <v>16.08698814251356</v>
       </c>
       <c r="I20" t="n">
-        <v>2.157894736842105</v>
+        <v>1.970556747035696</v>
       </c>
       <c r="J20" t="n">
-        <v>1.315789473684211</v>
+        <v>1.200336388743603</v>
       </c>
       <c r="K20" t="n">
-        <v>8.210911895122422</v>
+        <v>7.49645957804619</v>
       </c>
       <c r="L20" t="n">
-        <v>3.657894736842105</v>
+        <v>3.335977883532849</v>
       </c>
       <c r="M20" t="n">
-        <v>2.157894736842105</v>
+        <v>1.961256879639773</v>
       </c>
       <c r="N20" t="n">
-        <v>12.09081019857336</v>
+        <v>10.98481411351188</v>
       </c>
       <c r="O20" t="n">
-        <v>125.8947368421053</v>
+        <v>115.240759483247</v>
       </c>
       <c r="P20" t="n">
-        <v>23.21052631578947</v>
+        <v>21.21349281305909</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.6842105263158</v>
+        <v>94.02726667018787</v>
       </c>
       <c r="R20" t="n">
-        <v>73.70645064584539</v>
+        <v>67.50510570868487</v>
       </c>
       <c r="S20" t="n">
-        <v>75.6625461249277</v>
+        <v>69.28342128159461</v>
       </c>
       <c r="T20" t="n">
-        <v>106.0789473684211</v>
+        <v>97.11523198142409</v>
       </c>
       <c r="U20" t="n">
-        <v>89.81578947368421</v>
+        <v>82.24582440433775</v>
       </c>
       <c r="V20" t="n">
-        <v>6.052631578947368</v>
+        <v>5.541415315023744</v>
       </c>
       <c r="W20" t="n">
-        <v>3.078947368421053</v>
+        <v>2.811202164117981</v>
       </c>
       <c r="X20" t="n">
-        <v>16.65181212647002</v>
+        <v>15.18391900632926</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.86842105263158</v>
+        <v>16.32715123744205</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.263157894736842</v>
+        <v>8.462633116668329</v>
       </c>
       <c r="AA20" t="n">
-        <v>30.49439854443802</v>
+        <v>27.86133003277267</v>
       </c>
       <c r="AB20" t="n">
-        <v>154.6315789473684</v>
+        <v>141.6616858668597</v>
       </c>
       <c r="AC20" t="n">
-        <v>37.42105263157895</v>
+        <v>34.2471597152373</v>
       </c>
       <c r="AD20" t="n">
-        <v>117.2105263157895</v>
+        <v>107.4145261516224</v>
       </c>
       <c r="AE20" t="n">
-        <v>71.61051788124156</v>
+        <v>65.57801698477795</v>
       </c>
       <c r="AF20" t="n">
-        <v>73.34847464815886</v>
+        <v>67.16437981395363</v>
       </c>
       <c r="AG20" t="n">
-        <v>105.9473684210526</v>
+        <v>97.11915244577327</v>
       </c>
       <c r="AH20" t="n">
-        <v>84.84210526315789</v>
+        <v>77.78047154425167</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.5</v>
+        <v>6.846738890769305</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3.815789473684211</v>
+        <v>3.481657416566789</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.03165577405051</v>
+        <v>15.55732081883248</v>
       </c>
       <c r="AL20" t="n">
-        <v>18.63157894736842</v>
+        <v>17.07504201710394</v>
       </c>
       <c r="AM20" t="n">
-        <v>8.710526315789474</v>
+        <v>7.977652534044806</v>
       </c>
       <c r="AN20" t="n">
-        <v>30.94949734914209</v>
+        <v>28.32546378539347</v>
       </c>
     </row>
     <row r="21">
@@ -2998,121 +2998,121 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.52777777777778</v>
+        <v>18.87940834168383</v>
       </c>
       <c r="C21" t="n">
-        <v>4.166666666666667</v>
+        <v>3.822822708711559</v>
       </c>
       <c r="D21" t="n">
-        <v>16.36111111111111</v>
+        <v>15.05658563297227</v>
       </c>
       <c r="E21" t="n">
-        <v>54.34843522218522</v>
+        <v>49.95610187638601</v>
       </c>
       <c r="F21" t="n">
-        <v>50.99648822473822</v>
+        <v>46.82489476019694</v>
       </c>
       <c r="G21" t="n">
-        <v>16.75</v>
+        <v>15.4023766353988</v>
       </c>
       <c r="H21" t="n">
-        <v>13.75</v>
+        <v>12.64694648772066</v>
       </c>
       <c r="I21" t="n">
-        <v>1.638888888888889</v>
+        <v>1.501509866457137</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6350296500358649</v>
       </c>
       <c r="K21" t="n">
-        <v>4.415445665445666</v>
+        <v>4.035970884132137</v>
       </c>
       <c r="L21" t="n">
-        <v>3.222222222222222</v>
+        <v>2.960402781534133</v>
       </c>
       <c r="M21" t="n">
-        <v>1.416666666666667</v>
+        <v>1.298131893007673</v>
       </c>
       <c r="N21" t="n">
-        <v>8.354725515225516</v>
+        <v>7.645978217174022</v>
       </c>
       <c r="O21" t="n">
-        <v>110</v>
+        <v>101.199089839928</v>
       </c>
       <c r="P21" t="n">
-        <v>23.58333333333333</v>
+        <v>21.68470762451329</v>
       </c>
       <c r="Q21" t="n">
-        <v>86.41666666666667</v>
+        <v>79.51438221541474</v>
       </c>
       <c r="R21" t="n">
-        <v>70.00449363599364</v>
+        <v>64.35220761214651</v>
       </c>
       <c r="S21" t="n">
-        <v>70.59751562326562</v>
+        <v>64.8703022697069</v>
       </c>
       <c r="T21" t="n">
-        <v>91.44444444444444</v>
+        <v>84.16310557991928</v>
       </c>
       <c r="U21" t="n">
-        <v>74.5</v>
+        <v>68.56311600415872</v>
       </c>
       <c r="V21" t="n">
-        <v>4.861111111111111</v>
+        <v>4.447640376312369</v>
       </c>
       <c r="W21" t="n">
-        <v>2.611111111111111</v>
+        <v>2.384303652012518</v>
       </c>
       <c r="X21" t="n">
-        <v>15.09882400932401</v>
+        <v>13.79344963283679</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.08333333333333</v>
+        <v>17.53369015301093</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.194444444444445</v>
+        <v>8.437636241987875</v>
       </c>
       <c r="AA21" t="n">
-        <v>29.84475838975839</v>
+        <v>27.37604545362025</v>
       </c>
       <c r="AB21" t="n">
-        <v>138.4444444444445</v>
+        <v>127.2828795003183</v>
       </c>
       <c r="AC21" t="n">
-        <v>38.33333333333334</v>
+        <v>35.21257979259808</v>
       </c>
       <c r="AD21" t="n">
-        <v>100.1111111111111</v>
+        <v>92.07029970772024</v>
       </c>
       <c r="AE21" t="n">
-        <v>67.865659007659</v>
+        <v>62.39478668088878</v>
       </c>
       <c r="AF21" t="n">
-        <v>70.01658543308544</v>
+        <v>64.37006284371689</v>
       </c>
       <c r="AG21" t="n">
-        <v>87.08333333333333</v>
+        <v>80.09125713860807</v>
       </c>
       <c r="AH21" t="n">
-        <v>66.97222222222223</v>
+        <v>61.61609614395086</v>
       </c>
       <c r="AI21" t="n">
-        <v>7.583333333333333</v>
+        <v>6.956799938918691</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.972222222222222</v>
+        <v>3.646809041685973</v>
       </c>
       <c r="AK21" t="n">
-        <v>20.2861093998594</v>
+        <v>18.63507620890581</v>
       </c>
       <c r="AL21" t="n">
-        <v>19.13888888888889</v>
+        <v>17.58682617933555</v>
       </c>
       <c r="AM21" t="n">
-        <v>8.888888888888889</v>
+        <v>8.170444302354229</v>
       </c>
       <c r="AN21" t="n">
-        <v>30.33544725644725</v>
+        <v>27.93045448490987</v>
       </c>
     </row>
   </sheetData>
